--- a/WCW_2025 - players and prices.xlsx
+++ b/WCW_2025 - players and prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lexig\Desktop\FFBall_confidence_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E1DBA8-B2B6-4E62-8227-D3A60A84E0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C50560A-09E1-4C56-9CF1-C4EF82B34AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CBDCAE-DA92-4F23-A09B-CD9A6B8BA89D}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C8CBDCAE-DA92-4F23-A09B-CD9A6B8BA89D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="380">
   <si>
     <t>Player</t>
   </si>
@@ -1162,9 +1162,6 @@
   </si>
   <si>
     <t>DST</t>
-  </si>
-  <si>
-    <t>Adjusted Median Score</t>
   </si>
   <si>
     <t>price</t>
@@ -1226,15 +1223,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1553,20 +1546,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B320F96-1D01-4370-99B2-3C905ABA1AE7}">
-  <dimension ref="A1:F372"/>
+  <dimension ref="A1:E372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1576,11 +1568,8 @@
       <c r="C1" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1588,14 +1577,10 @@
         <v>373</v>
       </c>
       <c r="C2" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="D2" s="5">
-        <f>C2*100</f>
         <v>2420</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1603,14 +1588,10 @@
         <v>373</v>
       </c>
       <c r="C3" s="3">
-        <v>23.3</v>
-      </c>
-      <c r="D3" s="5">
-        <f>C3*100</f>
         <v>2330</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1618,14 +1599,10 @@
         <v>373</v>
       </c>
       <c r="C4" s="3">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4*100</f>
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1633,14 +1610,10 @@
         <v>373</v>
       </c>
       <c r="C5" s="3">
-        <v>22.35</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5*100</f>
         <v>2235</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1648,14 +1621,10 @@
         <v>373</v>
       </c>
       <c r="C6" s="3">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6*100</f>
         <v>2200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1663,14 +1632,10 @@
         <v>373</v>
       </c>
       <c r="C7" s="3">
-        <v>21.15</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7*100</f>
         <v>2115</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1678,14 +1643,10 @@
         <v>373</v>
       </c>
       <c r="C8" s="3">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5">
-        <f>C8*100</f>
         <v>2100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1693,14 +1654,10 @@
         <v>375</v>
       </c>
       <c r="C9" s="3">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9*100</f>
         <v>2039.9999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1708,14 +1665,10 @@
         <v>374</v>
       </c>
       <c r="C10" s="3">
-        <v>20.3</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10*100</f>
         <v>2030</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1723,15 +1676,11 @@
         <v>373</v>
       </c>
       <c r="C11" s="3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11*100</f>
         <v>1960.0000000000002</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1739,15 +1688,11 @@
         <v>373</v>
       </c>
       <c r="C12" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D12" s="5">
-        <f>C12*100</f>
         <v>1939.9999999999998</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1755,14 +1700,10 @@
         <v>375</v>
       </c>
       <c r="C13" s="3">
-        <v>19</v>
-      </c>
-      <c r="D13" s="5">
-        <f>C13*100</f>
         <v>1900</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1770,14 +1711,10 @@
         <v>376</v>
       </c>
       <c r="C14" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D14" s="5">
-        <f>C14*100</f>
         <v>1889.9999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1785,14 +1722,10 @@
         <v>373</v>
       </c>
       <c r="C15" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="D15" s="5">
-        <f>C15*100</f>
         <v>1880</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1800,14 +1733,10 @@
         <v>375</v>
       </c>
       <c r="C16" s="3">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D16" s="5">
-        <f>C16*100</f>
         <v>1810.0000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1815,14 +1744,10 @@
         <v>373</v>
       </c>
       <c r="C17" s="3">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D17" s="5">
-        <f>C17*100</f>
         <v>1810.0000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1830,14 +1755,10 @@
         <v>375</v>
       </c>
       <c r="C18" s="3">
-        <v>18</v>
-      </c>
-      <c r="D18" s="5">
-        <f>C18*100</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1845,14 +1766,10 @@
         <v>373</v>
       </c>
       <c r="C19" s="3">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5">
-        <f>C19*100</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1860,14 +1777,10 @@
         <v>374</v>
       </c>
       <c r="C20" s="3">
-        <v>17.7</v>
-      </c>
-      <c r="D20" s="5">
-        <f>C20*100</f>
         <v>1770</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1875,14 +1788,10 @@
         <v>373</v>
       </c>
       <c r="C21" s="3">
-        <v>17.7</v>
-      </c>
-      <c r="D21" s="5">
-        <f>C21*100</f>
         <v>1770</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1890,14 +1799,10 @@
         <v>375</v>
       </c>
       <c r="C22" s="3">
-        <v>17.2</v>
-      </c>
-      <c r="D22" s="5">
-        <f>C22*100</f>
         <v>1720</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1905,14 +1810,10 @@
         <v>373</v>
       </c>
       <c r="C23" s="3">
-        <v>16.8</v>
-      </c>
-      <c r="D23" s="5">
-        <f>C23*100</f>
         <v>1680</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1920,14 +1821,10 @@
         <v>375</v>
       </c>
       <c r="C24" s="3">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D24" s="5">
-        <f>C24*100</f>
         <v>1660.0000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1935,14 +1832,10 @@
         <v>373</v>
       </c>
       <c r="C25" s="3">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D25" s="5">
-        <f>C25*100</f>
         <v>1660.0000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1950,14 +1843,10 @@
         <v>375</v>
       </c>
       <c r="C26" s="3">
-        <v>16.5</v>
-      </c>
-      <c r="D26" s="5">
-        <f>C26*100</f>
         <v>1650</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1965,14 +1854,10 @@
         <v>375</v>
       </c>
       <c r="C27" s="3">
-        <v>16.3</v>
-      </c>
-      <c r="D27" s="5">
-        <f>C27*100</f>
         <v>1630</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1980,14 +1865,10 @@
         <v>374</v>
       </c>
       <c r="C28" s="3">
-        <v>16.3</v>
-      </c>
-      <c r="D28" s="5">
-        <f>C28*100</f>
         <v>1630</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1995,14 +1876,10 @@
         <v>373</v>
       </c>
       <c r="C29" s="3">
-        <v>16.2</v>
-      </c>
-      <c r="D29" s="5">
-        <f>C29*100</f>
         <v>1620</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -2010,14 +1887,10 @@
         <v>373</v>
       </c>
       <c r="C30" s="3">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D30" s="5">
-        <f>C30*100</f>
         <v>1610.0000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2025,14 +1898,10 @@
         <v>373</v>
       </c>
       <c r="C31" s="3">
-        <v>16</v>
-      </c>
-      <c r="D31" s="5">
-        <f>C31*100</f>
         <v>1600</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2040,14 +1909,10 @@
         <v>374</v>
       </c>
       <c r="C32" s="3">
-        <v>15.9</v>
-      </c>
-      <c r="D32" s="5">
-        <f>C32*100</f>
         <v>1590</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2055,14 +1920,10 @@
         <v>374</v>
       </c>
       <c r="C33" s="3">
-        <v>15.9</v>
-      </c>
-      <c r="D33" s="5">
-        <f>C33*100</f>
         <v>1590</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -2070,14 +1931,10 @@
         <v>376</v>
       </c>
       <c r="C34" s="3">
-        <v>15.5</v>
-      </c>
-      <c r="D34" s="5">
-        <f>C34*100</f>
         <v>1550</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -2085,14 +1942,10 @@
         <v>375</v>
       </c>
       <c r="C35" s="3">
-        <v>15.3</v>
-      </c>
-      <c r="D35" s="5">
-        <f>C35*100</f>
         <v>1530</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -2100,14 +1953,10 @@
         <v>375</v>
       </c>
       <c r="C36" s="3">
-        <v>15.3</v>
-      </c>
-      <c r="D36" s="5">
-        <f>C36*100</f>
         <v>1530</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2115,14 +1964,10 @@
         <v>375</v>
       </c>
       <c r="C37" s="3">
-        <v>15</v>
-      </c>
-      <c r="D37" s="5">
-        <f>C37*100</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -2130,14 +1975,10 @@
         <v>373</v>
       </c>
       <c r="C38" s="3">
-        <v>15</v>
-      </c>
-      <c r="D38" s="5">
-        <f>C38*100</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -2145,14 +1986,10 @@
         <v>373</v>
       </c>
       <c r="C39" s="3">
-        <v>14.7</v>
-      </c>
-      <c r="D39" s="5">
-        <f>C39*100</f>
         <v>1470</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2160,14 +1997,10 @@
         <v>373</v>
       </c>
       <c r="C40" s="3">
-        <v>14.7</v>
-      </c>
-      <c r="D40" s="5">
-        <f>C40*100</f>
         <v>1470</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -2175,14 +2008,10 @@
         <v>375</v>
       </c>
       <c r="C41" s="3">
-        <v>14.6</v>
-      </c>
-      <c r="D41" s="5">
-        <f>C41*100</f>
         <v>1460</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -2190,14 +2019,10 @@
         <v>376</v>
       </c>
       <c r="C42" s="3">
-        <v>14.6</v>
-      </c>
-      <c r="D42" s="5">
-        <f>C42*100</f>
         <v>1460</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2205,14 +2030,10 @@
         <v>376</v>
       </c>
       <c r="C43" s="3">
-        <v>14.6</v>
-      </c>
-      <c r="D43" s="5">
-        <f>C43*100</f>
         <v>1460</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -2220,14 +2041,10 @@
         <v>375</v>
       </c>
       <c r="C44" s="3">
-        <v>14.5</v>
-      </c>
-      <c r="D44" s="5">
-        <f>C44*100</f>
         <v>1450</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -2235,14 +2052,10 @@
         <v>375</v>
       </c>
       <c r="C45" s="3">
-        <v>14.4</v>
-      </c>
-      <c r="D45" s="5">
-        <f>C45*100</f>
         <v>1440</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -2250,14 +2063,10 @@
         <v>375</v>
       </c>
       <c r="C46" s="3">
-        <v>14.3</v>
-      </c>
-      <c r="D46" s="5">
-        <f>C46*100</f>
         <v>1430</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -2265,14 +2074,10 @@
         <v>375</v>
       </c>
       <c r="C47" s="3">
-        <v>14.3</v>
-      </c>
-      <c r="D47" s="5">
-        <f>C47*100</f>
         <v>1430</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -2280,14 +2085,10 @@
         <v>375</v>
       </c>
       <c r="C48" s="3">
-        <v>14.1</v>
-      </c>
-      <c r="D48" s="5">
-        <f>C48*100</f>
         <v>1410</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -2295,14 +2096,10 @@
         <v>373</v>
       </c>
       <c r="C49" s="3">
-        <v>14.1</v>
-      </c>
-      <c r="D49" s="5">
-        <f>C49*100</f>
         <v>1410</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -2310,14 +2107,10 @@
         <v>376</v>
       </c>
       <c r="C50" s="3">
-        <v>14</v>
-      </c>
-      <c r="D50" s="5">
-        <f>C50*100</f>
         <v>1400</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -2325,14 +2118,10 @@
         <v>373</v>
       </c>
       <c r="C51" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="D51" s="5">
-        <f>C51*100</f>
         <v>1390</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -2340,14 +2129,10 @@
         <v>373</v>
       </c>
       <c r="C52" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="D52" s="5">
-        <f>C52*100</f>
         <v>1390</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -2355,14 +2140,10 @@
         <v>374</v>
       </c>
       <c r="C53" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="D53" s="5">
-        <f>C53*100</f>
         <v>1380</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -2370,14 +2151,10 @@
         <v>373</v>
       </c>
       <c r="C54" s="3">
-        <v>13.75</v>
-      </c>
-      <c r="D54" s="5">
-        <f>C54*100</f>
         <v>1375</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -2385,14 +2162,10 @@
         <v>375</v>
       </c>
       <c r="C55" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="D55" s="5">
-        <f>C55*100</f>
         <v>1370</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -2400,14 +2173,10 @@
         <v>375</v>
       </c>
       <c r="C56" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="D56" s="5">
-        <f>C56*100</f>
         <v>1370</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2415,14 +2184,10 @@
         <v>374</v>
       </c>
       <c r="C57" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="D57" s="5">
-        <f>C57*100</f>
         <v>1370</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2430,14 +2195,10 @@
         <v>374</v>
       </c>
       <c r="C58" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="D58" s="5">
-        <f>C58*100</f>
         <v>1370</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2445,14 +2206,10 @@
         <v>373</v>
       </c>
       <c r="C59" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="D59" s="5">
-        <f>C59*100</f>
         <v>1360</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -2460,14 +2217,10 @@
         <v>375</v>
       </c>
       <c r="C60" s="3">
-        <v>13.45</v>
-      </c>
-      <c r="D60" s="5">
-        <f>C60*100</f>
         <v>1345</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -2475,14 +2228,10 @@
         <v>375</v>
       </c>
       <c r="C61" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="D61" s="5">
-        <f>C61*100</f>
         <v>1340</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -2490,14 +2239,10 @@
         <v>374</v>
       </c>
       <c r="C62" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="D62" s="5">
-        <f>C62*100</f>
         <v>1340</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -2505,14 +2250,10 @@
         <v>373</v>
       </c>
       <c r="C63" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="D63" s="5">
-        <f>C63*100</f>
         <v>1340</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -2520,14 +2261,10 @@
         <v>373</v>
       </c>
       <c r="C64" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="D64" s="5">
-        <f>C64*100</f>
         <v>1340</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2535,14 +2272,10 @@
         <v>375</v>
       </c>
       <c r="C65" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="D65" s="5">
-        <f>C65*100</f>
         <v>1330</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>124</v>
       </c>
@@ -2550,14 +2283,10 @@
         <v>376</v>
       </c>
       <c r="C66" s="3">
-        <v>13.25</v>
-      </c>
-      <c r="D66" s="5">
-        <f>C66*100</f>
         <v>1325</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -2565,14 +2294,10 @@
         <v>375</v>
       </c>
       <c r="C67" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="D67" s="5">
-        <f>C67*100</f>
         <v>1320</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2580,14 +2305,10 @@
         <v>375</v>
       </c>
       <c r="C68" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="D68" s="5">
-        <f>C68*100</f>
         <v>1310</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -2595,14 +2316,10 @@
         <v>375</v>
       </c>
       <c r="C69" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="D69" s="5">
-        <f>C69*100</f>
         <v>1310</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -2610,14 +2327,10 @@
         <v>373</v>
       </c>
       <c r="C70" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="D70" s="5">
-        <f>C70*100</f>
         <v>1310</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -2625,14 +2338,10 @@
         <v>374</v>
       </c>
       <c r="C71" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="D71" s="5">
-        <f>C71*100</f>
         <v>1290</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2640,14 +2349,10 @@
         <v>373</v>
       </c>
       <c r="C72" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="D72" s="5">
-        <f>C72*100</f>
         <v>1280</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -2655,14 +2360,10 @@
         <v>375</v>
       </c>
       <c r="C73" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="D73" s="5">
-        <f>C73*100</f>
         <v>1270</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -2670,14 +2371,10 @@
         <v>374</v>
       </c>
       <c r="C74" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="D74" s="5">
-        <f>C74*100</f>
         <v>1250</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -2685,14 +2382,10 @@
         <v>375</v>
       </c>
       <c r="C75" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="D75" s="5">
-        <f>C75*100</f>
         <v>1230</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -2700,14 +2393,10 @@
         <v>374</v>
       </c>
       <c r="C76" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="D76" s="5">
-        <f>C76*100</f>
         <v>1230</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -2715,14 +2404,10 @@
         <v>373</v>
       </c>
       <c r="C77" s="3">
-        <v>12.25</v>
-      </c>
-      <c r="D77" s="5">
-        <f>C77*100</f>
         <v>1225</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -2730,14 +2415,10 @@
         <v>375</v>
       </c>
       <c r="C78" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="D78" s="5">
-        <f>C78*100</f>
         <v>1220</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -2745,14 +2426,10 @@
         <v>376</v>
       </c>
       <c r="C79" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="D79" s="5">
-        <f>C79*100</f>
         <v>1220</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>116</v>
       </c>
@@ -2760,14 +2437,10 @@
         <v>376</v>
       </c>
       <c r="C80" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="D80" s="5">
-        <f>C80*100</f>
         <v>1220</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>51</v>
       </c>
@@ -2775,14 +2448,10 @@
         <v>374</v>
       </c>
       <c r="C81" s="3">
-        <v>12.15</v>
-      </c>
-      <c r="D81" s="5">
-        <f>C81*100</f>
         <v>1215</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -2790,14 +2459,10 @@
         <v>375</v>
       </c>
       <c r="C82" s="3">
-        <v>12</v>
-      </c>
-      <c r="D82" s="5">
-        <f>C82*100</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -2805,14 +2470,10 @@
         <v>374</v>
       </c>
       <c r="C83" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="D83" s="5">
-        <f>C83*100</f>
         <v>1190</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -2820,14 +2481,10 @@
         <v>374</v>
       </c>
       <c r="C84" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="D84" s="5">
-        <f>C84*100</f>
         <v>1190</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>75</v>
       </c>
@@ -2835,14 +2492,10 @@
         <v>373</v>
       </c>
       <c r="C85" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="D85" s="5">
-        <f>C85*100</f>
         <v>1190</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -2850,14 +2503,10 @@
         <v>375</v>
       </c>
       <c r="C86" s="3">
-        <v>11.85</v>
-      </c>
-      <c r="D86" s="5">
-        <f>C86*100</f>
         <v>1185</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -2865,14 +2514,10 @@
         <v>373</v>
       </c>
       <c r="C87" s="3">
-        <v>11.8</v>
-      </c>
-      <c r="D87" s="5">
-        <f>C87*100</f>
         <v>1180</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -2880,14 +2525,10 @@
         <v>374</v>
       </c>
       <c r="C88" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="D88" s="5">
-        <f>C88*100</f>
         <v>1170</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>35</v>
       </c>
@@ -2895,14 +2536,10 @@
         <v>375</v>
       </c>
       <c r="C89" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="D89" s="5">
-        <f>C89*100</f>
         <v>1140</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -2910,14 +2547,10 @@
         <v>375</v>
       </c>
       <c r="C90" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="D90" s="5">
-        <f>C90*100</f>
         <v>1140</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>72</v>
       </c>
@@ -2925,14 +2558,10 @@
         <v>377</v>
       </c>
       <c r="C91" s="3">
-        <v>11.33333333333333</v>
-      </c>
-      <c r="D91" s="5">
-        <f>C91*100</f>
         <v>1133.333333333333</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -2940,14 +2569,10 @@
         <v>375</v>
       </c>
       <c r="C92" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="D92" s="5">
-        <f>C92*100</f>
         <v>1130</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -2955,14 +2580,10 @@
         <v>373</v>
       </c>
       <c r="C93" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="D93" s="5">
-        <f>C93*100</f>
         <v>1120</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>52</v>
       </c>
@@ -2970,14 +2591,10 @@
         <v>373</v>
       </c>
       <c r="C94" s="3">
-        <v>11.03333333333333</v>
-      </c>
-      <c r="D94" s="5">
-        <f>C94*100</f>
         <v>1103.333333333333</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>147</v>
       </c>
@@ -2985,14 +2602,10 @@
         <v>374</v>
       </c>
       <c r="C95" s="3">
-        <v>11</v>
-      </c>
-      <c r="D95" s="5">
-        <f>C95*100</f>
         <v>1100</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -3000,14 +2613,10 @@
         <v>377</v>
       </c>
       <c r="C96" s="3">
-        <v>11</v>
-      </c>
-      <c r="D96" s="5">
-        <f>C96*100</f>
         <v>1100</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>114</v>
       </c>
@@ -3015,14 +2624,10 @@
         <v>377</v>
       </c>
       <c r="C97" s="3">
-        <v>11</v>
-      </c>
-      <c r="D97" s="5">
-        <f>C97*100</f>
         <v>1100</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>131</v>
       </c>
@@ -3030,14 +2635,10 @@
         <v>377</v>
       </c>
       <c r="C98" s="3">
-        <v>11</v>
-      </c>
-      <c r="D98" s="5">
-        <f>C98*100</f>
         <v>1100</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>132</v>
       </c>
@@ -3045,14 +2646,10 @@
         <v>377</v>
       </c>
       <c r="C99" s="3">
-        <v>11</v>
-      </c>
-      <c r="D99" s="5">
-        <f>C99*100</f>
         <v>1100</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>141</v>
       </c>
@@ -3060,14 +2657,10 @@
         <v>376</v>
       </c>
       <c r="C100" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="D100" s="5">
-        <f>C100*100</f>
         <v>1080</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>67</v>
       </c>
@@ -3075,14 +2668,10 @@
         <v>374</v>
       </c>
       <c r="C101" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="D101" s="5">
-        <f>C101*100</f>
         <v>1080</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>82</v>
       </c>
@@ -3090,14 +2679,10 @@
         <v>377</v>
       </c>
       <c r="C102" s="3">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="D102" s="5">
-        <f>C102*100</f>
         <v>1066.666666666667</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -3105,14 +2690,10 @@
         <v>375</v>
       </c>
       <c r="C103" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="D103" s="5">
-        <f>C103*100</f>
         <v>1040</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -3120,14 +2701,10 @@
         <v>375</v>
       </c>
       <c r="C104" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="D104" s="5">
-        <f>C104*100</f>
         <v>1010</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>129</v>
       </c>
@@ -3135,14 +2712,10 @@
         <v>376</v>
       </c>
       <c r="C105" s="3">
-        <v>10</v>
-      </c>
-      <c r="D105" s="5">
-        <f>C105*100</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -3150,14 +2723,10 @@
         <v>377</v>
       </c>
       <c r="C106" s="3">
-        <v>10</v>
-      </c>
-      <c r="D106" s="5">
-        <f>C106*100</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -3165,14 +2734,10 @@
         <v>377</v>
       </c>
       <c r="C107" s="3">
-        <v>10</v>
-      </c>
-      <c r="D107" s="5">
-        <f>C107*100</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>153</v>
       </c>
@@ -3180,14 +2745,10 @@
         <v>377</v>
       </c>
       <c r="C108" s="3">
-        <v>10</v>
-      </c>
-      <c r="D108" s="5">
-        <f>C108*100</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>144</v>
       </c>
@@ -3195,14 +2756,10 @@
         <v>375</v>
       </c>
       <c r="C109" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="D109" s="5">
-        <f>C109*100</f>
         <v>990</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>136</v>
       </c>
@@ -3210,14 +2767,10 @@
         <v>373</v>
       </c>
       <c r="C110" s="3">
-        <v>9.8500000000000014</v>
-      </c>
-      <c r="D110" s="5">
-        <f>C110*100</f>
         <v>985.00000000000011</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3225,14 +2778,10 @@
         <v>375</v>
       </c>
       <c r="C111" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D111" s="5">
-        <f>C111*100</f>
         <v>980.00000000000011</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -3240,14 +2789,10 @@
         <v>375</v>
       </c>
       <c r="C112" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D112" s="5">
-        <f>C112*100</f>
         <v>980.00000000000011</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>170</v>
       </c>
@@ -3255,14 +2800,10 @@
         <v>376</v>
       </c>
       <c r="C113" s="3">
-        <v>9.7249999999999996</v>
-      </c>
-      <c r="D113" s="5">
-        <f>C113*100</f>
         <v>972.5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>89</v>
       </c>
@@ -3270,14 +2811,10 @@
         <v>373</v>
       </c>
       <c r="C114" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="D114" s="5">
-        <f>C114*100</f>
         <v>969.99999999999989</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>139</v>
       </c>
@@ -3285,14 +2822,10 @@
         <v>373</v>
       </c>
       <c r="C115" s="3">
-        <v>9.65</v>
-      </c>
-      <c r="D115" s="5">
-        <f>C115*100</f>
         <v>965</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -3300,14 +2833,10 @@
         <v>375</v>
       </c>
       <c r="C116" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="D116" s="5">
-        <f>C116*100</f>
         <v>960</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>143</v>
       </c>
@@ -3315,14 +2844,10 @@
         <v>376</v>
       </c>
       <c r="C117" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D117" s="5">
-        <f>C117*100</f>
         <v>950</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>159</v>
       </c>
@@ -3330,14 +2855,10 @@
         <v>376</v>
       </c>
       <c r="C118" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D118" s="5">
-        <f>C118*100</f>
         <v>950</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>146</v>
       </c>
@@ -3345,14 +2866,10 @@
         <v>375</v>
       </c>
       <c r="C119" s="3">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="D119" s="5">
-        <f>C119*100</f>
         <v>944.99999999999989</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>152</v>
       </c>
@@ -3360,14 +2877,10 @@
         <v>375</v>
       </c>
       <c r="C120" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D120" s="5">
-        <f>C120*100</f>
         <v>930.00000000000011</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>160</v>
       </c>
@@ -3375,14 +2888,10 @@
         <v>376</v>
       </c>
       <c r="C121" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D121" s="5">
-        <f>C121*100</f>
         <v>919.99999999999989</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>47</v>
       </c>
@@ -3390,14 +2899,10 @@
         <v>374</v>
       </c>
       <c r="C122" s="3">
-        <v>9.1499999999999986</v>
-      </c>
-      <c r="D122" s="5">
-        <f>C122*100</f>
         <v>914.99999999999989</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>90</v>
       </c>
@@ -3405,14 +2910,10 @@
         <v>374</v>
       </c>
       <c r="C123" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="D123" s="5">
-        <f>C123*100</f>
         <v>910</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>98</v>
       </c>
@@ -3420,14 +2921,10 @@
         <v>374</v>
       </c>
       <c r="C124" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="D124" s="5">
-        <f>C124*100</f>
         <v>910</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>145</v>
       </c>
@@ -3435,14 +2932,10 @@
         <v>375</v>
       </c>
       <c r="C125" s="3">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="D125" s="5">
-        <f>C125*100</f>
         <v>905.00000000000011</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3450,14 +2943,10 @@
         <v>375</v>
       </c>
       <c r="C126" s="3">
-        <v>9</v>
-      </c>
-      <c r="D126" s="5">
-        <f>C126*100</f>
         <v>900</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>196</v>
       </c>
@@ -3465,14 +2954,10 @@
         <v>375</v>
       </c>
       <c r="C127" s="3">
-        <v>9</v>
-      </c>
-      <c r="D127" s="5">
-        <f>C127*100</f>
         <v>900</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>121</v>
       </c>
@@ -3480,14 +2965,10 @@
         <v>377</v>
       </c>
       <c r="C128" s="3">
-        <v>9</v>
-      </c>
-      <c r="D128" s="5">
-        <f>C128*100</f>
         <v>900</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>218</v>
       </c>
@@ -3495,14 +2976,10 @@
         <v>378</v>
       </c>
       <c r="C129" s="3">
-        <v>9</v>
-      </c>
-      <c r="D129" s="5">
-        <f>C129*100</f>
         <v>900</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -3510,14 +2987,10 @@
         <v>375</v>
       </c>
       <c r="C130" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="D130" s="5">
-        <f>C130*100</f>
         <v>890</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>97</v>
       </c>
@@ -3525,14 +2998,10 @@
         <v>374</v>
       </c>
       <c r="C131" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D131" s="5">
-        <f>C131*100</f>
         <v>869.99999999999989</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>156</v>
       </c>
@@ -3540,14 +3009,10 @@
         <v>375</v>
       </c>
       <c r="C132" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="D132" s="5">
-        <f>C132*100</f>
         <v>860</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>173</v>
       </c>
@@ -3555,14 +3020,10 @@
         <v>375</v>
       </c>
       <c r="C133" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="D133" s="5">
-        <f>C133*100</f>
         <v>860</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -3570,14 +3031,10 @@
         <v>376</v>
       </c>
       <c r="C134" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="D134" s="5">
-        <f>C134*100</f>
         <v>850</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>91</v>
       </c>
@@ -3585,14 +3042,10 @@
         <v>373</v>
       </c>
       <c r="C135" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="D135" s="5">
-        <f>C135*100</f>
         <v>850</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>119</v>
       </c>
@@ -3600,14 +3053,10 @@
         <v>373</v>
       </c>
       <c r="C136" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="D136" s="5">
-        <f>C136*100</f>
         <v>850</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>181</v>
       </c>
@@ -3615,14 +3064,10 @@
         <v>375</v>
       </c>
       <c r="C137" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="D137" s="5">
-        <f>C137*100</f>
         <v>840</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>199</v>
       </c>
@@ -3630,14 +3075,10 @@
         <v>375</v>
       </c>
       <c r="C138" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="D138" s="5">
-        <f>C138*100</f>
         <v>840</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>78</v>
       </c>
@@ -3645,14 +3086,10 @@
         <v>374</v>
       </c>
       <c r="C139" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="D139" s="5">
-        <f>C139*100</f>
         <v>840</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>49</v>
       </c>
@@ -3660,14 +3097,10 @@
         <v>375</v>
       </c>
       <c r="C140" s="3">
-        <v>8.3666666666666671</v>
-      </c>
-      <c r="D140" s="5">
-        <f>C140*100</f>
         <v>836.66666666666674</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>135</v>
       </c>
@@ -3675,14 +3108,10 @@
         <v>375</v>
       </c>
       <c r="C141" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D141" s="5">
-        <f>C141*100</f>
         <v>830.00000000000011</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>117</v>
       </c>
@@ -3690,14 +3119,10 @@
         <v>374</v>
       </c>
       <c r="C142" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D142" s="5">
-        <f>C142*100</f>
         <v>830.00000000000011</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>172</v>
       </c>
@@ -3705,14 +3130,10 @@
         <v>375</v>
       </c>
       <c r="C143" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="D143" s="5">
-        <f>C143*100</f>
         <v>810</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>180</v>
       </c>
@@ -3720,14 +3141,10 @@
         <v>375</v>
       </c>
       <c r="C144" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="D144" s="5">
-        <f>C144*100</f>
         <v>810</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -3735,14 +3152,10 @@
         <v>373</v>
       </c>
       <c r="C145" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="D145" s="5">
-        <f>C145*100</f>
         <v>810</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>165</v>
       </c>
@@ -3750,14 +3163,10 @@
         <v>375</v>
       </c>
       <c r="C146" s="3">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="D146" s="5">
-        <f>C146*100</f>
         <v>805.00000000000011</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>151</v>
       </c>
@@ -3765,14 +3174,10 @@
         <v>377</v>
       </c>
       <c r="C147" s="3">
-        <v>8</v>
-      </c>
-      <c r="D147" s="5">
-        <f>C147*100</f>
         <v>800</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -3780,14 +3185,10 @@
         <v>377</v>
       </c>
       <c r="C148" s="3">
-        <v>8</v>
-      </c>
-      <c r="D148" s="5">
-        <f>C148*100</f>
         <v>800</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -3795,14 +3196,10 @@
         <v>377</v>
       </c>
       <c r="C149" s="3">
-        <v>8</v>
-      </c>
-      <c r="D149" s="5">
-        <f>C149*100</f>
         <v>800</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -3810,14 +3207,10 @@
         <v>377</v>
       </c>
       <c r="C150" s="3">
-        <v>8</v>
-      </c>
-      <c r="D150" s="5">
-        <f>C150*100</f>
         <v>800</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>175</v>
       </c>
@@ -3825,14 +3218,10 @@
         <v>377</v>
       </c>
       <c r="C151" s="3">
-        <v>8</v>
-      </c>
-      <c r="D151" s="5">
-        <f>C151*100</f>
         <v>800</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>176</v>
       </c>
@@ -3840,14 +3229,10 @@
         <v>377</v>
       </c>
       <c r="C152" s="3">
-        <v>8</v>
-      </c>
-      <c r="D152" s="5">
-        <f>C152*100</f>
         <v>800</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>207</v>
       </c>
@@ -3855,14 +3240,10 @@
         <v>378</v>
       </c>
       <c r="C153" s="3">
-        <v>8</v>
-      </c>
-      <c r="D153" s="5">
-        <f>C153*100</f>
         <v>800</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>234</v>
       </c>
@@ -3870,14 +3251,10 @@
         <v>378</v>
       </c>
       <c r="C154" s="3">
-        <v>8</v>
-      </c>
-      <c r="D154" s="5">
-        <f>C154*100</f>
         <v>800</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>88</v>
       </c>
@@ -3885,14 +3262,10 @@
         <v>374</v>
       </c>
       <c r="C155" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="D155" s="5">
-        <f>C155*100</f>
         <v>790</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>102</v>
       </c>
@@ -3900,14 +3273,10 @@
         <v>374</v>
       </c>
       <c r="C156" s="3">
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="D156" s="5">
-        <f>C156*100</f>
         <v>780.00000000000011</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>209</v>
       </c>
@@ -3915,14 +3284,10 @@
         <v>376</v>
       </c>
       <c r="C157" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="D157" s="5">
-        <f>C157*100</f>
         <v>780</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>169</v>
       </c>
@@ -3930,14 +3295,10 @@
         <v>375</v>
       </c>
       <c r="C158" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="D158" s="5">
-        <f>C158*100</f>
         <v>770</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>198</v>
       </c>
@@ -3945,14 +3306,10 @@
         <v>375</v>
       </c>
       <c r="C159" s="3">
-        <v>7.6749999999999998</v>
-      </c>
-      <c r="D159" s="5">
-        <f>C159*100</f>
         <v>767.5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>120</v>
       </c>
@@ -3960,14 +3317,10 @@
         <v>374</v>
       </c>
       <c r="C160" s="3">
-        <v>7.65</v>
-      </c>
-      <c r="D160" s="5">
-        <f>C160*100</f>
         <v>765</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>190</v>
       </c>
@@ -3975,14 +3328,10 @@
         <v>375</v>
       </c>
       <c r="C161" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="D161" s="5">
-        <f>C161*100</f>
         <v>750</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>149</v>
       </c>
@@ -3990,14 +3339,10 @@
         <v>378</v>
       </c>
       <c r="C162" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="D162" s="5">
-        <f>C162*100</f>
         <v>750</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>158</v>
       </c>
@@ -4005,14 +3350,10 @@
         <v>375</v>
       </c>
       <c r="C163" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="D163" s="5">
-        <f>C163*100</f>
         <v>740</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>185</v>
       </c>
@@ -4020,14 +3361,10 @@
         <v>375</v>
       </c>
       <c r="C164" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="D164" s="5">
-        <f>C164*100</f>
         <v>740</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>194</v>
       </c>
@@ -4035,14 +3372,10 @@
         <v>375</v>
       </c>
       <c r="C165" s="3">
-        <v>7.3999999999999986</v>
-      </c>
-      <c r="D165" s="5">
-        <f>C165*100</f>
         <v>739.99999999999989</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>100</v>
       </c>
@@ -4050,14 +3383,10 @@
         <v>374</v>
       </c>
       <c r="C166" s="3">
-        <v>7.3666666666666654</v>
-      </c>
-      <c r="D166" s="5">
-        <f>C166*100</f>
         <v>736.66666666666652</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>79</v>
       </c>
@@ -4065,14 +3394,10 @@
         <v>374</v>
       </c>
       <c r="C167" s="3">
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="D167" s="5">
-        <f>C167*100</f>
         <v>730.00000000000011</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>200</v>
       </c>
@@ -4080,14 +3405,10 @@
         <v>373</v>
       </c>
       <c r="C168" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="D168" s="5">
-        <f>C168*100</f>
         <v>720</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4095,14 +3416,10 @@
         <v>376</v>
       </c>
       <c r="C169" s="3">
-        <v>7.15</v>
-      </c>
-      <c r="D169" s="5">
-        <f>C169*100</f>
         <v>715</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>142</v>
       </c>
@@ -4110,14 +3427,10 @@
         <v>377</v>
       </c>
       <c r="C170" s="3">
-        <v>7</v>
-      </c>
-      <c r="D170" s="5">
-        <f>C170*100</f>
         <v>700</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -4125,14 +3438,10 @@
         <v>377</v>
       </c>
       <c r="C171" s="3">
-        <v>7</v>
-      </c>
-      <c r="D171" s="5">
-        <f>C171*100</f>
         <v>700</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>166</v>
       </c>
@@ -4140,14 +3449,10 @@
         <v>377</v>
       </c>
       <c r="C172" s="3">
-        <v>7</v>
-      </c>
-      <c r="D172" s="5">
-        <f>C172*100</f>
         <v>700</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>167</v>
       </c>
@@ -4155,14 +3460,10 @@
         <v>377</v>
       </c>
       <c r="C173" s="3">
-        <v>7</v>
-      </c>
-      <c r="D173" s="5">
-        <f>C173*100</f>
         <v>700</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -4170,14 +3471,10 @@
         <v>377</v>
       </c>
       <c r="C174" s="3">
-        <v>7</v>
-      </c>
-      <c r="D174" s="5">
-        <f>C174*100</f>
         <v>700</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -4185,14 +3482,10 @@
         <v>377</v>
       </c>
       <c r="C175" s="3">
-        <v>7</v>
-      </c>
-      <c r="D175" s="5">
-        <f>C175*100</f>
         <v>700</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>205</v>
       </c>
@@ -4200,14 +3493,10 @@
         <v>377</v>
       </c>
       <c r="C176" s="3">
-        <v>7</v>
-      </c>
-      <c r="D176" s="5">
-        <f>C176*100</f>
         <v>700</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>208</v>
       </c>
@@ -4215,14 +3504,10 @@
         <v>377</v>
       </c>
       <c r="C177" s="3">
-        <v>7</v>
-      </c>
-      <c r="D177" s="5">
-        <f>C177*100</f>
         <v>700</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>130</v>
       </c>
@@ -4230,14 +3515,10 @@
         <v>378</v>
       </c>
       <c r="C178" s="3">
-        <v>7</v>
-      </c>
-      <c r="D178" s="5">
-        <f>C178*100</f>
         <v>700</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>140</v>
       </c>
@@ -4245,14 +3526,10 @@
         <v>378</v>
       </c>
       <c r="C179" s="3">
-        <v>7</v>
-      </c>
-      <c r="D179" s="5">
-        <f>C179*100</f>
         <v>700</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>204</v>
       </c>
@@ -4260,14 +3537,10 @@
         <v>378</v>
       </c>
       <c r="C180" s="3">
-        <v>7</v>
-      </c>
-      <c r="D180" s="5">
-        <f>C180*100</f>
         <v>700</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>201</v>
       </c>
@@ -4275,14 +3548,10 @@
         <v>375</v>
       </c>
       <c r="C181" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="D181" s="5">
-        <f>C181*100</f>
         <v>690</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>221</v>
       </c>
@@ -4290,14 +3559,10 @@
         <v>376</v>
       </c>
       <c r="C182" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="D182" s="5">
-        <f>C182*100</f>
         <v>690</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>138</v>
       </c>
@@ -4305,14 +3570,10 @@
         <v>374</v>
       </c>
       <c r="C183" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="D183" s="5">
-        <f>C183*100</f>
         <v>690</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>122</v>
       </c>
@@ -4320,14 +3581,10 @@
         <v>376</v>
       </c>
       <c r="C184" s="3">
-        <v>6.875</v>
-      </c>
-      <c r="D184" s="5">
-        <f>C184*100</f>
         <v>687.5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>212</v>
       </c>
@@ -4335,14 +3592,10 @@
         <v>375</v>
       </c>
       <c r="C185" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="D185" s="5">
-        <f>C185*100</f>
         <v>680</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>223</v>
       </c>
@@ -4350,14 +3603,10 @@
         <v>375</v>
       </c>
       <c r="C186" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="D186" s="5">
-        <f>C186*100</f>
         <v>680</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -4365,14 +3614,10 @@
         <v>376</v>
       </c>
       <c r="C187" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="D187" s="5">
-        <f>C187*100</f>
         <v>680</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>238</v>
       </c>
@@ -4380,14 +3625,10 @@
         <v>376</v>
       </c>
       <c r="C188" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="D188" s="5">
-        <f>C188*100</f>
         <v>680</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>220</v>
       </c>
@@ -4395,14 +3636,10 @@
         <v>376</v>
       </c>
       <c r="C189" s="3">
-        <v>6.75</v>
-      </c>
-      <c r="D189" s="5">
-        <f>C189*100</f>
         <v>675</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>242</v>
       </c>
@@ -4410,14 +3647,10 @@
         <v>376</v>
       </c>
       <c r="C190" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="D190" s="5">
-        <f>C190*100</f>
         <v>670</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>134</v>
       </c>
@@ -4425,14 +3658,10 @@
         <v>374</v>
       </c>
       <c r="C191" s="3">
-        <v>6.65</v>
-      </c>
-      <c r="D191" s="5">
-        <f>C191*100</f>
         <v>665</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>252</v>
       </c>
@@ -4440,14 +3669,10 @@
         <v>376</v>
       </c>
       <c r="C192" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="D192" s="5">
-        <f>C192*100</f>
         <v>660</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>62</v>
       </c>
@@ -4455,14 +3680,10 @@
         <v>374</v>
       </c>
       <c r="C193" s="3">
-        <v>6.5500000000000007</v>
-      </c>
-      <c r="D193" s="5">
-        <f>C193*100</f>
         <v>655.00000000000011</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>197</v>
       </c>
@@ -4470,14 +3691,10 @@
         <v>376</v>
       </c>
       <c r="C194" s="3">
-        <v>6.35</v>
-      </c>
-      <c r="D194" s="5">
-        <f>C194*100</f>
         <v>635</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>157</v>
       </c>
@@ -4485,14 +3702,10 @@
         <v>374</v>
       </c>
       <c r="C195" s="3">
-        <v>6.35</v>
-      </c>
-      <c r="D195" s="5">
-        <f>C195*100</f>
         <v>635</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>272</v>
       </c>
@@ -4500,14 +3713,10 @@
         <v>376</v>
       </c>
       <c r="C196" s="3">
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="D196" s="5">
-        <f>C196*100</f>
         <v>630.00000000000011</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>219</v>
       </c>
@@ -4515,14 +3724,10 @@
         <v>375</v>
       </c>
       <c r="C197" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="D197" s="5">
-        <f>C197*100</f>
         <v>630</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>182</v>
       </c>
@@ -4530,14 +3735,10 @@
         <v>373</v>
       </c>
       <c r="C198" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="D198" s="5">
-        <f>C198*100</f>
         <v>630</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>193</v>
       </c>
@@ -4545,14 +3746,10 @@
         <v>375</v>
       </c>
       <c r="C199" s="3">
-        <v>6.0666666666666673</v>
-      </c>
-      <c r="D199" s="5">
-        <f>C199*100</f>
         <v>606.66666666666674</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -4560,14 +3757,10 @@
         <v>375</v>
       </c>
       <c r="C200" s="3">
-        <v>6</v>
-      </c>
-      <c r="D200" s="5">
-        <f>C200*100</f>
         <v>600</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>299</v>
       </c>
@@ -4575,14 +3768,10 @@
         <v>375</v>
       </c>
       <c r="C201" s="3">
-        <v>6</v>
-      </c>
-      <c r="D201" s="5">
-        <f>C201*100</f>
         <v>600</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>300</v>
       </c>
@@ -4590,14 +3779,10 @@
         <v>375</v>
       </c>
       <c r="C202" s="3">
-        <v>6</v>
-      </c>
-      <c r="D202" s="5">
-        <f>C202*100</f>
         <v>600</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>240</v>
       </c>
@@ -4605,14 +3790,10 @@
         <v>376</v>
       </c>
       <c r="C203" s="3">
-        <v>6</v>
-      </c>
-      <c r="D203" s="5">
-        <f>C203*100</f>
         <v>600</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>154</v>
       </c>
@@ -4620,14 +3801,10 @@
         <v>377</v>
       </c>
       <c r="C204" s="3">
-        <v>6</v>
-      </c>
-      <c r="D204" s="5">
-        <f>C204*100</f>
         <v>600</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>216</v>
       </c>
@@ -4635,14 +3812,10 @@
         <v>377</v>
       </c>
       <c r="C205" s="3">
-        <v>6</v>
-      </c>
-      <c r="D205" s="5">
-        <f>C205*100</f>
         <v>600</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>230</v>
       </c>
@@ -4650,14 +3823,10 @@
         <v>377</v>
       </c>
       <c r="C206" s="3">
-        <v>6</v>
-      </c>
-      <c r="D206" s="5">
-        <f>C206*100</f>
         <v>600</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>188</v>
       </c>
@@ -4665,14 +3834,10 @@
         <v>378</v>
       </c>
       <c r="C207" s="3">
-        <v>6</v>
-      </c>
-      <c r="D207" s="5">
-        <f>C207*100</f>
         <v>600</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>189</v>
       </c>
@@ -4680,14 +3845,10 @@
         <v>378</v>
       </c>
       <c r="C208" s="3">
-        <v>6</v>
-      </c>
-      <c r="D208" s="5">
-        <f>C208*100</f>
         <v>600</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>214</v>
       </c>
@@ -4695,14 +3856,10 @@
         <v>378</v>
       </c>
       <c r="C209" s="3">
-        <v>6</v>
-      </c>
-      <c r="D209" s="5">
-        <f>C209*100</f>
         <v>600</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>232</v>
       </c>
@@ -4710,14 +3867,10 @@
         <v>378</v>
       </c>
       <c r="C210" s="3">
-        <v>6</v>
-      </c>
-      <c r="D210" s="5">
-        <f>C210*100</f>
         <v>600</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>263</v>
       </c>
@@ -4725,14 +3878,10 @@
         <v>378</v>
       </c>
       <c r="C211" s="3">
-        <v>6</v>
-      </c>
-      <c r="D211" s="5">
-        <f>C211*100</f>
         <v>600</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>241</v>
       </c>
@@ -4740,14 +3889,10 @@
         <v>375</v>
       </c>
       <c r="C212" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="D212" s="5">
-        <f>C212*100</f>
         <v>580</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>203</v>
       </c>
@@ -4755,14 +3900,10 @@
         <v>375</v>
       </c>
       <c r="C213" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="D213" s="5">
-        <f>C213*100</f>
         <v>570</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>257</v>
       </c>
@@ -4770,14 +3911,10 @@
         <v>376</v>
       </c>
       <c r="C214" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="D214" s="5">
-        <f>C214*100</f>
         <v>570</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>211</v>
       </c>
@@ -4785,14 +3922,10 @@
         <v>375</v>
       </c>
       <c r="C215" s="3">
-        <v>5.6999999999999993</v>
-      </c>
-      <c r="D215" s="5">
-        <f>C215*100</f>
         <v>569.99999999999989</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -4800,14 +3933,10 @@
         <v>375</v>
       </c>
       <c r="C216" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="D216" s="5">
-        <f>C216*100</f>
         <v>560</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>251</v>
       </c>
@@ -4815,14 +3944,10 @@
         <v>375</v>
       </c>
       <c r="C217" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="D217" s="5">
-        <f>C217*100</f>
         <v>560</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>259</v>
       </c>
@@ -4830,14 +3955,10 @@
         <v>375</v>
       </c>
       <c r="C218" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="D218" s="5">
-        <f>C218*100</f>
         <v>560</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>295</v>
       </c>
@@ -4845,14 +3966,10 @@
         <v>373</v>
       </c>
       <c r="C219" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="D219" s="5">
-        <f>C219*100</f>
         <v>560</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>148</v>
       </c>
@@ -4860,14 +3977,10 @@
         <v>375</v>
       </c>
       <c r="C220" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="D220" s="5">
-        <f>C220*100</f>
         <v>550</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>253</v>
       </c>
@@ -4875,14 +3988,10 @@
         <v>376</v>
       </c>
       <c r="C221" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="D221" s="5">
-        <f>C221*100</f>
         <v>550</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -4890,14 +3999,10 @@
         <v>376</v>
       </c>
       <c r="C222" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="D222" s="5">
-        <f>C222*100</f>
         <v>540</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>254</v>
       </c>
@@ -4905,14 +4010,10 @@
         <v>375</v>
       </c>
       <c r="C223" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="D223" s="5">
-        <f>C223*100</f>
         <v>530</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>236</v>
       </c>
@@ -4920,14 +4021,10 @@
         <v>376</v>
       </c>
       <c r="C224" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="D224" s="5">
-        <f>C224*100</f>
         <v>530</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>179</v>
       </c>
@@ -4935,14 +4032,10 @@
         <v>375</v>
       </c>
       <c r="C225" s="3">
-        <v>5.25</v>
-      </c>
-      <c r="D225" s="5">
-        <f>C225*100</f>
         <v>525</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>360</v>
       </c>
@@ -4950,14 +4043,10 @@
         <v>375</v>
       </c>
       <c r="C226" s="3">
-        <v>5.25</v>
-      </c>
-      <c r="D226" s="5">
-        <f>C226*100</f>
         <v>525</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>231</v>
       </c>
@@ -4965,14 +4054,10 @@
         <v>377</v>
       </c>
       <c r="C227" s="3">
-        <v>5.25</v>
-      </c>
-      <c r="D227" s="5">
-        <f>C227*100</f>
         <v>525</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>353</v>
       </c>
@@ -4980,14 +4065,10 @@
         <v>375</v>
       </c>
       <c r="C228" s="3">
-        <v>5.15</v>
-      </c>
-      <c r="D228" s="5">
-        <f>C228*100</f>
         <v>515</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>273</v>
       </c>
@@ -4995,14 +4076,10 @@
         <v>375</v>
       </c>
       <c r="C229" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D229" s="5">
-        <f>C229*100</f>
         <v>509.99999999999994</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>86</v>
       </c>
@@ -5010,14 +4087,10 @@
         <v>373</v>
       </c>
       <c r="C230" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D230" s="5">
-        <f>C230*100</f>
         <v>509.99999999999994</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>210</v>
       </c>
@@ -5025,14 +4098,10 @@
         <v>375</v>
       </c>
       <c r="C231" s="3">
-        <v>5</v>
-      </c>
-      <c r="D231" s="5">
-        <f>C231*100</f>
         <v>500</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>187</v>
       </c>
@@ -5040,14 +4109,10 @@
         <v>377</v>
       </c>
       <c r="C232" s="3">
-        <v>5</v>
-      </c>
-      <c r="D232" s="5">
-        <f>C232*100</f>
         <v>500</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>206</v>
       </c>
@@ -5055,14 +4120,10 @@
         <v>377</v>
       </c>
       <c r="C233" s="3">
-        <v>5</v>
-      </c>
-      <c r="D233" s="5">
-        <f>C233*100</f>
         <v>500</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>226</v>
       </c>
@@ -5070,14 +4131,10 @@
         <v>377</v>
       </c>
       <c r="C234" s="3">
-        <v>5</v>
-      </c>
-      <c r="D234" s="5">
-        <f>C234*100</f>
         <v>500</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>228</v>
       </c>
@@ -5085,14 +4142,10 @@
         <v>377</v>
       </c>
       <c r="C235" s="3">
-        <v>5</v>
-      </c>
-      <c r="D235" s="5">
-        <f>C235*100</f>
         <v>500</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>229</v>
       </c>
@@ -5100,14 +4153,10 @@
         <v>377</v>
       </c>
       <c r="C236" s="3">
-        <v>5</v>
-      </c>
-      <c r="D236" s="5">
-        <f>C236*100</f>
         <v>500</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>261</v>
       </c>
@@ -5115,14 +4164,10 @@
         <v>377</v>
       </c>
       <c r="C237" s="3">
-        <v>5</v>
-      </c>
-      <c r="D237" s="5">
-        <f>C237*100</f>
         <v>500</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>215</v>
       </c>
@@ -5130,14 +4175,10 @@
         <v>378</v>
       </c>
       <c r="C238" s="3">
-        <v>5</v>
-      </c>
-      <c r="D238" s="5">
-        <f>C238*100</f>
         <v>500</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>249</v>
       </c>
@@ -5145,14 +4186,10 @@
         <v>378</v>
       </c>
       <c r="C239" s="3">
-        <v>5</v>
-      </c>
-      <c r="D239" s="5">
-        <f>C239*100</f>
         <v>500</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>262</v>
       </c>
@@ -5160,14 +4197,10 @@
         <v>378</v>
       </c>
       <c r="C240" s="3">
-        <v>5</v>
-      </c>
-      <c r="D240" s="5">
-        <f>C240*100</f>
         <v>500</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>266</v>
       </c>
@@ -5175,14 +4208,10 @@
         <v>375</v>
       </c>
       <c r="C241" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D241" s="5">
-        <f>C241*100</f>
         <v>490.00000000000006</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>271</v>
       </c>
@@ -5190,14 +4219,10 @@
         <v>375</v>
       </c>
       <c r="C242" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="D242" s="5">
-        <f>C242*100</f>
         <v>470</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>296</v>
       </c>
@@ -5205,14 +4230,10 @@
         <v>375</v>
       </c>
       <c r="C243" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="D243" s="5">
-        <f>C243*100</f>
         <v>470</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>278</v>
       </c>
@@ -5220,14 +4241,10 @@
         <v>375</v>
       </c>
       <c r="C244" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="D244" s="5">
-        <f>C244*100</f>
         <v>450</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>113</v>
       </c>
@@ -5235,14 +4252,10 @@
         <v>377</v>
       </c>
       <c r="C245" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="D245" s="5">
-        <f>C245*100</f>
         <v>450</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>225</v>
       </c>
@@ -5250,14 +4263,10 @@
         <v>378</v>
       </c>
       <c r="C246" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="D246" s="5">
-        <f>C246*100</f>
         <v>450</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>233</v>
       </c>
@@ -5265,14 +4274,10 @@
         <v>378</v>
       </c>
       <c r="C247" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="D247" s="5">
-        <f>C247*100</f>
         <v>450</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>267</v>
       </c>
@@ -5280,14 +4285,10 @@
         <v>375</v>
       </c>
       <c r="C248" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D248" s="5">
-        <f>C248*100</f>
         <v>440.00000000000006</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -5295,14 +4296,10 @@
         <v>375</v>
       </c>
       <c r="C249" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D249" s="5">
-        <f>C249*100</f>
         <v>440.00000000000006</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>283</v>
       </c>
@@ -5310,14 +4307,10 @@
         <v>375</v>
       </c>
       <c r="C250" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D250" s="5">
-        <f>C250*100</f>
         <v>440.00000000000006</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>222</v>
       </c>
@@ -5325,14 +4318,10 @@
         <v>376</v>
       </c>
       <c r="C251" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D251" s="5">
-        <f>C251*100</f>
         <v>440.00000000000006</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>227</v>
       </c>
@@ -5340,14 +4329,10 @@
         <v>376</v>
       </c>
       <c r="C252" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D252" s="5">
-        <f>C252*100</f>
         <v>440.00000000000006</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>171</v>
       </c>
@@ -5355,14 +4340,10 @@
         <v>374</v>
       </c>
       <c r="C253" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D253" s="5">
-        <f>C253*100</f>
         <v>440.00000000000006</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>256</v>
       </c>
@@ -5370,14 +4351,10 @@
         <v>374</v>
       </c>
       <c r="C254" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="D254" s="5">
-        <f>C254*100</f>
         <v>430</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>243</v>
       </c>
@@ -5385,14 +4362,10 @@
         <v>375</v>
       </c>
       <c r="C255" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="D255" s="5">
-        <f>C255*100</f>
         <v>420</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>336</v>
       </c>
@@ -5400,14 +4373,10 @@
         <v>376</v>
       </c>
       <c r="C256" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="D256" s="5">
-        <f>C256*100</f>
         <v>420</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>183</v>
       </c>
@@ -5415,14 +4384,10 @@
         <v>374</v>
       </c>
       <c r="C257" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="D257" s="5">
-        <f>C257*100</f>
         <v>420</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>268</v>
       </c>
@@ -5430,14 +4395,10 @@
         <v>375</v>
       </c>
       <c r="C258" s="3">
-        <v>4</v>
-      </c>
-      <c r="D258" s="5">
-        <f>C258*100</f>
         <v>400</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>286</v>
       </c>
@@ -5445,14 +4406,10 @@
         <v>375</v>
       </c>
       <c r="C259" s="3">
-        <v>4</v>
-      </c>
-      <c r="D259" s="5">
-        <f>C259*100</f>
         <v>400</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>291</v>
       </c>
@@ -5460,14 +4417,10 @@
         <v>375</v>
       </c>
       <c r="C260" s="3">
-        <v>4</v>
-      </c>
-      <c r="D260" s="5">
-        <f>C260*100</f>
         <v>400</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>177</v>
       </c>
@@ -5475,14 +4428,10 @@
         <v>377</v>
       </c>
       <c r="C261" s="3">
-        <v>4</v>
-      </c>
-      <c r="D261" s="5">
-        <f>C261*100</f>
         <v>400</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>245</v>
       </c>
@@ -5490,14 +4439,10 @@
         <v>377</v>
       </c>
       <c r="C262" s="3">
-        <v>4</v>
-      </c>
-      <c r="D262" s="5">
-        <f>C262*100</f>
         <v>400</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>292</v>
       </c>
@@ -5505,14 +4450,10 @@
         <v>377</v>
       </c>
       <c r="C263" s="3">
-        <v>4</v>
-      </c>
-      <c r="D263" s="5">
-        <f>C263*100</f>
         <v>400</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>186</v>
       </c>
@@ -5520,14 +4461,10 @@
         <v>378</v>
       </c>
       <c r="C264" s="3">
-        <v>4</v>
-      </c>
-      <c r="D264" s="5">
-        <f>C264*100</f>
         <v>400</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>246</v>
       </c>
@@ -5535,14 +4472,10 @@
         <v>378</v>
       </c>
       <c r="C265" s="3">
-        <v>4</v>
-      </c>
-      <c r="D265" s="5">
-        <f>C265*100</f>
         <v>400</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>250</v>
       </c>
@@ -5550,14 +4483,10 @@
         <v>378</v>
       </c>
       <c r="C266" s="3">
-        <v>4</v>
-      </c>
-      <c r="D266" s="5">
-        <f>C266*100</f>
         <v>400</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>260</v>
       </c>
@@ -5565,14 +4494,10 @@
         <v>378</v>
       </c>
       <c r="C267" s="3">
-        <v>4</v>
-      </c>
-      <c r="D267" s="5">
-        <f>C267*100</f>
         <v>400</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>277</v>
       </c>
@@ -5580,14 +4505,10 @@
         <v>378</v>
       </c>
       <c r="C268" s="3">
-        <v>4</v>
-      </c>
-      <c r="D268" s="5">
-        <f>C268*100</f>
         <v>400</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>279</v>
       </c>
@@ -5595,14 +4516,10 @@
         <v>378</v>
       </c>
       <c r="C269" s="3">
-        <v>4</v>
-      </c>
-      <c r="D269" s="5">
-        <f>C269*100</f>
         <v>400</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>290</v>
       </c>
@@ -5610,14 +4527,10 @@
         <v>378</v>
       </c>
       <c r="C270" s="3">
-        <v>4</v>
-      </c>
-      <c r="D270" s="5">
-        <f>C270*100</f>
         <v>400</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>293</v>
       </c>
@@ -5625,14 +4538,10 @@
         <v>378</v>
       </c>
       <c r="C271" s="3">
-        <v>4</v>
-      </c>
-      <c r="D271" s="5">
-        <f>C271*100</f>
         <v>400</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>297</v>
       </c>
@@ -5640,14 +4549,10 @@
         <v>375</v>
       </c>
       <c r="C272" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="D272" s="5">
-        <f>C272*100</f>
         <v>390</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -5655,14 +4560,10 @@
         <v>375</v>
       </c>
       <c r="C273" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="D273" s="5">
-        <f>C273*100</f>
         <v>350</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>269</v>
       </c>
@@ -5670,14 +4571,10 @@
         <v>373</v>
       </c>
       <c r="C274" s="3">
-        <v>3.4666666666666668</v>
-      </c>
-      <c r="D274" s="5">
-        <f>C274*100</f>
         <v>346.66666666666669</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>137</v>
       </c>
@@ -5685,14 +4582,10 @@
         <v>375</v>
       </c>
       <c r="C275" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="D275" s="5">
-        <f>C275*100</f>
         <v>340</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>308</v>
       </c>
@@ -5700,14 +4593,10 @@
         <v>375</v>
       </c>
       <c r="C276" s="3">
-        <v>3.35</v>
-      </c>
-      <c r="D276" s="5">
-        <f>C276*100</f>
         <v>335</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>118</v>
       </c>
@@ -5715,14 +4604,10 @@
         <v>373</v>
       </c>
       <c r="C277" s="3">
-        <v>3.35</v>
-      </c>
-      <c r="D277" s="5">
-        <f>C277*100</f>
         <v>335</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>248</v>
       </c>
@@ -5730,14 +4615,10 @@
         <v>377</v>
       </c>
       <c r="C278" s="3">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="D278" s="5">
-        <f>C278*100</f>
         <v>333.33333333333331</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>280</v>
       </c>
@@ -5745,14 +4626,10 @@
         <v>377</v>
       </c>
       <c r="C279" s="3">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="D279" s="5">
-        <f>C279*100</f>
         <v>333.33333333333331</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>264</v>
       </c>
@@ -5760,14 +4637,10 @@
         <v>375</v>
       </c>
       <c r="C280" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="D280" s="5">
-        <f>C280*100</f>
         <v>330</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>305</v>
       </c>
@@ -5775,14 +4648,10 @@
         <v>376</v>
       </c>
       <c r="C281" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="D281" s="5">
-        <f>C281*100</f>
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>155</v>
       </c>
@@ -5790,14 +4659,10 @@
         <v>374</v>
       </c>
       <c r="C282" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="D282" s="5">
-        <f>C282*100</f>
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>313</v>
       </c>
@@ -5805,14 +4670,10 @@
         <v>375</v>
       </c>
       <c r="C283" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="D283" s="5">
-        <f>C283*100</f>
         <v>320</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>333</v>
       </c>
@@ -5820,14 +4681,10 @@
         <v>375</v>
       </c>
       <c r="C284" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="D284" s="5">
-        <f>C284*100</f>
         <v>320</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>330</v>
       </c>
@@ -5835,14 +4692,10 @@
         <v>375</v>
       </c>
       <c r="C285" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="D285" s="5">
-        <f>C285*100</f>
         <v>310</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>318</v>
       </c>
@@ -5850,14 +4703,10 @@
         <v>375</v>
       </c>
       <c r="C286" s="3">
-        <v>3</v>
-      </c>
-      <c r="D286" s="5">
-        <f>C286*100</f>
         <v>300</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>321</v>
       </c>
@@ -5865,14 +4714,10 @@
         <v>375</v>
       </c>
       <c r="C287" s="3">
-        <v>3</v>
-      </c>
-      <c r="D287" s="5">
-        <f>C287*100</f>
         <v>300</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>344</v>
       </c>
@@ -5880,14 +4725,10 @@
         <v>375</v>
       </c>
       <c r="C288" s="3">
-        <v>3</v>
-      </c>
-      <c r="D288" s="5">
-        <f>C288*100</f>
         <v>300</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>326</v>
       </c>
@@ -5895,14 +4736,10 @@
         <v>376</v>
       </c>
       <c r="C289" s="3">
-        <v>3</v>
-      </c>
-      <c r="D289" s="5">
-        <f>C289*100</f>
         <v>300</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>287</v>
       </c>
@@ -5910,14 +4747,10 @@
         <v>373</v>
       </c>
       <c r="C290" s="3">
-        <v>3</v>
-      </c>
-      <c r="D290" s="5">
-        <f>C290*100</f>
         <v>300</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -5925,14 +4758,10 @@
         <v>377</v>
       </c>
       <c r="C291" s="3">
-        <v>3</v>
-      </c>
-      <c r="D291" s="5">
-        <f>C291*100</f>
         <v>300</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -5940,14 +4769,10 @@
         <v>377</v>
       </c>
       <c r="C292" s="3">
-        <v>3</v>
-      </c>
-      <c r="D292" s="5">
-        <f>C292*100</f>
         <v>300</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>247</v>
       </c>
@@ -5955,14 +4780,10 @@
         <v>378</v>
       </c>
       <c r="C293" s="3">
-        <v>3</v>
-      </c>
-      <c r="D293" s="5">
-        <f>C293*100</f>
         <v>300</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>303</v>
       </c>
@@ -5970,14 +4791,10 @@
         <v>378</v>
       </c>
       <c r="C294" s="3">
-        <v>3</v>
-      </c>
-      <c r="D294" s="5">
-        <f>C294*100</f>
         <v>300</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>319</v>
       </c>
@@ -5985,14 +4802,10 @@
         <v>378</v>
       </c>
       <c r="C295" s="3">
-        <v>3</v>
-      </c>
-      <c r="D295" s="5">
-        <f>C295*100</f>
         <v>300</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>320</v>
       </c>
@@ -6000,14 +4813,10 @@
         <v>378</v>
       </c>
       <c r="C296" s="3">
-        <v>3</v>
-      </c>
-      <c r="D296" s="5">
-        <f>C296*100</f>
         <v>300</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>335</v>
       </c>
@@ -6015,14 +4824,10 @@
         <v>375</v>
       </c>
       <c r="C297" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="D297" s="5">
-        <f>C297*100</f>
         <v>290</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>284</v>
       </c>
@@ -6030,14 +4835,10 @@
         <v>376</v>
       </c>
       <c r="C298" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="D298" s="5">
-        <f>C298*100</f>
         <v>290</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>275</v>
       </c>
@@ -6045,14 +4846,10 @@
         <v>375</v>
       </c>
       <c r="C299" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="D299" s="5">
-        <f>C299*100</f>
         <v>280</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>323</v>
       </c>
@@ -6060,14 +4857,10 @@
         <v>376</v>
       </c>
       <c r="C300" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="D300" s="5">
-        <f>C300*100</f>
         <v>280</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>325</v>
       </c>
@@ -6075,14 +4868,10 @@
         <v>375</v>
       </c>
       <c r="C301" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="D301" s="5">
-        <f>C301*100</f>
         <v>275</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>306</v>
       </c>
@@ -6090,14 +4879,10 @@
         <v>375</v>
       </c>
       <c r="C302" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="D302" s="5">
-        <f>C302*100</f>
         <v>270</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>294</v>
       </c>
@@ -6105,14 +4890,10 @@
         <v>375</v>
       </c>
       <c r="C303" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="D303" s="5">
-        <f>C303*100</f>
         <v>260</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>332</v>
       </c>
@@ -6120,14 +4901,10 @@
         <v>375</v>
       </c>
       <c r="C304" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="D304" s="5">
-        <f>C304*100</f>
         <v>260</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>281</v>
       </c>
@@ -6135,14 +4912,10 @@
         <v>376</v>
       </c>
       <c r="C305" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="D305" s="5">
-        <f>C305*100</f>
         <v>260</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>371</v>
       </c>
@@ -6150,14 +4923,10 @@
         <v>373</v>
       </c>
       <c r="C306" s="3">
-        <v>2.5249999999999999</v>
-      </c>
-      <c r="D306" s="5">
-        <f>C306*100</f>
         <v>252.5</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>312</v>
       </c>
@@ -6165,14 +4934,10 @@
         <v>375</v>
       </c>
       <c r="C307" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D307" s="5">
-        <f>C307*100</f>
         <v>250</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>237</v>
       </c>
@@ -6180,14 +4945,10 @@
         <v>374</v>
       </c>
       <c r="C308" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D308" s="5">
-        <f>C308*100</f>
         <v>250</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>217</v>
       </c>
@@ -6195,14 +4956,10 @@
         <v>374</v>
       </c>
       <c r="C309" s="3">
-        <v>2.433333333333334</v>
-      </c>
-      <c r="D309" s="5">
-        <f>C309*100</f>
         <v>243.3333333333334</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>184</v>
       </c>
@@ -6210,14 +4967,10 @@
         <v>373</v>
       </c>
       <c r="C310" s="3">
-        <v>2.433333333333334</v>
-      </c>
-      <c r="D310" s="5">
-        <f>C310*100</f>
         <v>243.3333333333334</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>302</v>
       </c>
@@ -6225,14 +4978,10 @@
         <v>375</v>
       </c>
       <c r="C311" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="D311" s="5">
-        <f>C311*100</f>
         <v>240</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>328</v>
       </c>
@@ -6240,14 +4989,10 @@
         <v>375</v>
       </c>
       <c r="C312" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="D312" s="5">
-        <f>C312*100</f>
         <v>240</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>349</v>
       </c>
@@ -6255,14 +5000,10 @@
         <v>375</v>
       </c>
       <c r="C313" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="D313" s="5">
-        <f>C313*100</f>
         <v>240</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>337</v>
       </c>
@@ -6270,14 +5011,10 @@
         <v>376</v>
       </c>
       <c r="C314" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="D314" s="5">
-        <f>C314*100</f>
         <v>240</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>347</v>
       </c>
@@ -6285,14 +5022,10 @@
         <v>374</v>
       </c>
       <c r="C315" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="D315" s="5">
-        <f>C315*100</f>
         <v>240</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>309</v>
       </c>
@@ -6300,14 +5033,10 @@
         <v>375</v>
       </c>
       <c r="C316" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D316" s="5">
-        <f>C316*100</f>
         <v>229.99999999999997</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>324</v>
       </c>
@@ -6315,14 +5044,10 @@
         <v>376</v>
       </c>
       <c r="C317" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D317" s="5">
-        <f>C317*100</f>
         <v>229.99999999999997</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>123</v>
       </c>
@@ -6330,14 +5055,10 @@
         <v>374</v>
       </c>
       <c r="C318" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D318" s="5">
-        <f>C318*100</f>
         <v>229.99999999999997</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>255</v>
       </c>
@@ -6345,14 +5066,10 @@
         <v>374</v>
       </c>
       <c r="C319" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="D319" s="5">
-        <f>C319*100</f>
         <v>225</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>327</v>
       </c>
@@ -6360,14 +5077,10 @@
         <v>376</v>
       </c>
       <c r="C320" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D320" s="5">
-        <f>C320*100</f>
         <v>220.00000000000003</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -6375,14 +5088,10 @@
         <v>375</v>
       </c>
       <c r="C321" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="D321" s="5">
-        <f>C321*100</f>
         <v>210</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>316</v>
       </c>
@@ -6390,14 +5099,10 @@
         <v>376</v>
       </c>
       <c r="C322" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="D322" s="5">
-        <f>C322*100</f>
         <v>210</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>345</v>
       </c>
@@ -6405,14 +5110,10 @@
         <v>375</v>
       </c>
       <c r="C323" s="3">
-        <v>2</v>
-      </c>
-      <c r="D323" s="5">
-        <f>C323*100</f>
         <v>200</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>370</v>
       </c>
@@ -6420,14 +5121,10 @@
         <v>376</v>
       </c>
       <c r="C324" s="3">
-        <v>2</v>
-      </c>
-      <c r="D324" s="5">
-        <f>C324*100</f>
         <v>200</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>258</v>
       </c>
@@ -6435,14 +5132,10 @@
         <v>374</v>
       </c>
       <c r="C325" s="3">
-        <v>2</v>
-      </c>
-      <c r="D325" s="5">
-        <f>C325*100</f>
         <v>200</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>315</v>
       </c>
@@ -6450,14 +5143,10 @@
         <v>378</v>
       </c>
       <c r="C326" s="3">
-        <v>2</v>
-      </c>
-      <c r="D326" s="5">
-        <f>C326*100</f>
         <v>200</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>322</v>
       </c>
@@ -6465,14 +5154,10 @@
         <v>378</v>
       </c>
       <c r="C327" s="3">
-        <v>2</v>
-      </c>
-      <c r="D327" s="5">
-        <f>C327*100</f>
         <v>200</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>364</v>
       </c>
@@ -6480,14 +5165,10 @@
         <v>375</v>
       </c>
       <c r="C328" s="3">
-        <v>1.95</v>
-      </c>
-      <c r="D328" s="5">
-        <f>C328*100</f>
         <v>195</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>307</v>
       </c>
@@ -6495,14 +5176,10 @@
         <v>375</v>
       </c>
       <c r="C329" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="D329" s="5">
-        <f>C329*100</f>
         <v>190</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>346</v>
       </c>
@@ -6510,14 +5187,10 @@
         <v>375</v>
       </c>
       <c r="C330" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="D330" s="5">
-        <f>C330*100</f>
         <v>190</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>351</v>
       </c>
@@ -6525,14 +5198,10 @@
         <v>375</v>
       </c>
       <c r="C331" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="D331" s="5">
-        <f>C331*100</f>
         <v>190</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>285</v>
       </c>
@@ -6540,14 +5209,10 @@
         <v>374</v>
       </c>
       <c r="C332" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="D332" s="5">
-        <f>C332*100</f>
         <v>190</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>361</v>
       </c>
@@ -6555,14 +5220,10 @@
         <v>375</v>
       </c>
       <c r="C333" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="D333" s="5">
-        <f>C333*100</f>
         <v>180</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>341</v>
       </c>
@@ -6570,14 +5231,10 @@
         <v>376</v>
       </c>
       <c r="C334" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="D334" s="5">
-        <f>C334*100</f>
         <v>180</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>348</v>
       </c>
@@ -6585,14 +5242,10 @@
         <v>376</v>
       </c>
       <c r="C335" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="D335" s="5">
-        <f>C335*100</f>
         <v>180</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>192</v>
       </c>
@@ -6600,14 +5253,10 @@
         <v>374</v>
       </c>
       <c r="C336" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="D336" s="5">
-        <f>C336*100</f>
         <v>180</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>343</v>
       </c>
@@ -6615,14 +5264,10 @@
         <v>375</v>
       </c>
       <c r="C337" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="D337" s="5">
-        <f>C337*100</f>
         <v>175</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>244</v>
       </c>
@@ -6630,14 +5275,10 @@
         <v>374</v>
       </c>
       <c r="C338" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="D338" s="5">
-        <f>C338*100</f>
         <v>175</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>340</v>
       </c>
@@ -6645,14 +5286,10 @@
         <v>376</v>
       </c>
       <c r="C339" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="D339" s="5">
-        <f>C339*100</f>
         <v>170</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>357</v>
       </c>
@@ -6660,14 +5297,10 @@
         <v>376</v>
       </c>
       <c r="C340" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="D340" s="5">
-        <f>C340*100</f>
         <v>170</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>99</v>
       </c>
@@ -6675,14 +5308,10 @@
         <v>373</v>
       </c>
       <c r="C341" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="D341" s="5">
-        <f>C341*100</f>
         <v>170</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>368</v>
       </c>
@@ -6690,14 +5319,10 @@
         <v>373</v>
       </c>
       <c r="C342" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="D342" s="5">
-        <f>C342*100</f>
         <v>170</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>178</v>
       </c>
@@ -6705,14 +5330,10 @@
         <v>375</v>
       </c>
       <c r="C343" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="D343" s="5">
-        <f>C343*100</f>
         <v>160</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>354</v>
       </c>
@@ -6720,14 +5341,10 @@
         <v>376</v>
       </c>
       <c r="C344" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="D344" s="5">
-        <f>C344*100</f>
         <v>160</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>274</v>
       </c>
@@ -6735,14 +5352,10 @@
         <v>374</v>
       </c>
       <c r="C345" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="D345" s="5">
-        <f>C345*100</f>
         <v>160</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>338</v>
       </c>
@@ -6750,14 +5363,10 @@
         <v>375</v>
       </c>
       <c r="C346" s="3">
-        <v>1.55</v>
-      </c>
-      <c r="D346" s="5">
-        <f>C346*100</f>
         <v>155</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>310</v>
       </c>
@@ -6765,14 +5374,10 @@
         <v>375</v>
       </c>
       <c r="C347" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D347" s="5">
-        <f>C347*100</f>
         <v>150</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>350</v>
       </c>
@@ -6780,14 +5385,10 @@
         <v>375</v>
       </c>
       <c r="C348" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D348" s="5">
-        <f>C348*100</f>
         <v>150</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>311</v>
       </c>
@@ -6795,14 +5396,10 @@
         <v>376</v>
       </c>
       <c r="C349" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D349" s="5">
-        <f>C349*100</f>
         <v>150</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>331</v>
       </c>
@@ -6810,14 +5407,10 @@
         <v>376</v>
       </c>
       <c r="C350" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D350" s="5">
-        <f>C350*100</f>
         <v>150</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>334</v>
       </c>
@@ -6825,14 +5418,10 @@
         <v>376</v>
       </c>
       <c r="C351" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D351" s="5">
-        <f>C351*100</f>
         <v>150</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>355</v>
       </c>
@@ -6840,14 +5429,10 @@
         <v>375</v>
       </c>
       <c r="C352" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="D352" s="5">
-        <f>C352*100</f>
         <v>140</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>342</v>
       </c>
@@ -6855,14 +5440,10 @@
         <v>376</v>
       </c>
       <c r="C353" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="D353" s="5">
-        <f>C353*100</f>
         <v>140</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>358</v>
       </c>
@@ -6870,14 +5451,10 @@
         <v>376</v>
       </c>
       <c r="C354" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="D354" s="5">
-        <f>C354*100</f>
         <v>140</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>359</v>
       </c>
@@ -6885,14 +5462,10 @@
         <v>376</v>
       </c>
       <c r="C355" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="D355" s="5">
-        <f>C355*100</f>
         <v>140</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>362</v>
       </c>
@@ -6900,14 +5473,10 @@
         <v>376</v>
       </c>
       <c r="C356" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="D356" s="5">
-        <f>C356*100</f>
         <v>140</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>363</v>
       </c>
@@ -6915,14 +5484,10 @@
         <v>376</v>
       </c>
       <c r="C357" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="D357" s="5">
-        <f>C357*100</f>
         <v>140</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>282</v>
       </c>
@@ -6930,14 +5495,10 @@
         <v>374</v>
       </c>
       <c r="C358" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="D358" s="5">
-        <f>C358*100</f>
         <v>140</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>276</v>
       </c>
@@ -6945,14 +5506,10 @@
         <v>374</v>
       </c>
       <c r="C359" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="D359" s="5">
-        <f>C359*100</f>
         <v>135</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>329</v>
       </c>
@@ -6960,14 +5517,10 @@
         <v>373</v>
       </c>
       <c r="C360" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="D360" s="5">
-        <f>C360*100</f>
         <v>135</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>352</v>
       </c>
@@ -6975,14 +5528,10 @@
         <v>375</v>
       </c>
       <c r="C361" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="D361" s="5">
-        <f>C361*100</f>
         <v>130</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>369</v>
       </c>
@@ -6990,14 +5539,10 @@
         <v>375</v>
       </c>
       <c r="C362" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="D362" s="5">
-        <f>C362*100</f>
         <v>130</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>356</v>
       </c>
@@ -7005,14 +5550,10 @@
         <v>376</v>
       </c>
       <c r="C363" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="D363" s="5">
-        <f>C363*100</f>
         <v>130</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>367</v>
       </c>
@@ -7020,14 +5561,10 @@
         <v>376</v>
       </c>
       <c r="C364" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="D364" s="5">
-        <f>C364*100</f>
         <v>130</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>265</v>
       </c>
@@ -7035,14 +5572,10 @@
         <v>374</v>
       </c>
       <c r="C365" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="D365" s="5">
-        <f>C365*100</f>
         <v>130</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>314</v>
       </c>
@@ -7050,14 +5583,10 @@
         <v>373</v>
       </c>
       <c r="C366" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="D366" s="5">
-        <f>C366*100</f>
         <v>130</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>239</v>
       </c>
@@ -7065,14 +5594,10 @@
         <v>374</v>
       </c>
       <c r="C367" s="3">
-        <v>1.225000000000001</v>
-      </c>
-      <c r="D367" s="5">
-        <f>C367*100</f>
         <v>122.5000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>365</v>
       </c>
@@ -7080,14 +5605,10 @@
         <v>375</v>
       </c>
       <c r="C368" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="D368" s="5">
-        <f>C368*100</f>
         <v>120</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>235</v>
       </c>
@@ -7095,14 +5616,10 @@
         <v>374</v>
       </c>
       <c r="C369" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D369" s="5">
-        <f>C369*100</f>
         <v>110.00000000000001</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>304</v>
       </c>
@@ -7110,14 +5627,10 @@
         <v>375</v>
       </c>
       <c r="C370" s="3">
-        <v>1</v>
-      </c>
-      <c r="D370" s="5">
-        <f>C370*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>366</v>
       </c>
@@ -7125,14 +5638,10 @@
         <v>375</v>
       </c>
       <c r="C371" s="3">
-        <v>1</v>
-      </c>
-      <c r="D371" s="5">
-        <f>C371*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>301</v>
       </c>
@@ -7140,16 +5649,12 @@
         <v>378</v>
       </c>
       <c r="C372" s="3">
-        <v>1</v>
-      </c>
-      <c r="D372" s="5">
-        <f>C372*100</f>
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D474">
-    <sortCondition descending="1" ref="D1:D474"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C474">
+    <sortCondition descending="1" ref="C1:C474"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WCW_2025 - players and prices.xlsx
+++ b/WCW_2025 - players and prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lexig\Desktop\FFBall_confidence_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C50560A-09E1-4C56-9CF1-C4EF82B34AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25568743-FB42-4B02-8A28-A256C04AACC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C8CBDCAE-DA92-4F23-A09B-CD9A6B8BA89D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CBDCAE-DA92-4F23-A09B-CD9A6B8BA89D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
     <t>DST</t>
   </si>
   <si>
-    <t>price</t>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1228,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1549,7 +1549,7 @@
   <dimension ref="A1:E372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/WCW_2025 - players and prices.xlsx
+++ b/WCW_2025 - players and prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lexig\Desktop\FFBall_confidence_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25568743-FB42-4B02-8A28-A256C04AACC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA228D0D-378F-4D8C-BF76-5101FC193845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CBDCAE-DA92-4F23-A09B-CD9A6B8BA89D}"/>
   </bookViews>
@@ -1549,13 +1549,13 @@
   <dimension ref="A1:E372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G215" sqref="G215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">

--- a/WCW_2025 - players and prices.xlsx
+++ b/WCW_2025 - players and prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lexig\Desktop\FFBall_confidence_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA228D0D-378F-4D8C-BF76-5101FC193845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33962CA-5653-4500-A3BF-C50659FAE73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CBDCAE-DA92-4F23-A09B-CD9A6B8BA89D}"/>
   </bookViews>
@@ -1548,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B320F96-1D01-4370-99B2-3C905ABA1AE7}">
   <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G215" sqref="G215"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="E319" sqref="E319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/WCW_2025 - players and prices.xlsx
+++ b/WCW_2025 - players and prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lexig\Desktop\FFBall_confidence_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5C0FF6-AC0A-449E-AB60-0AFE899F5103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E1CC0F-BAF6-47E8-A939-98D10F24DA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C8CBDCAE-DA92-4F23-A09B-CD9A6B8BA89D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CBDCAE-DA92-4F23-A09B-CD9A6B8BA89D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B320F96-1D01-4370-99B2-3C905ABA1AE7}">
   <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127:D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,640 +1111,640 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1">
-        <v>1170</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D4" s="1">
-        <v>1460</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1">
-        <v>1130</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1">
-        <v>700</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="1">
-        <v>840</v>
+        <v>1960.0000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1">
-        <v>180</v>
+        <v>1939.9999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1">
-        <v>500</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="1">
-        <v>630.00000000000011</v>
+        <v>1810.0000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
         <v>164</v>
       </c>
       <c r="D11" s="1">
-        <v>300</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" s="1">
-        <v>140</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D13" s="1">
-        <v>-303.33333333333331</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
         <v>162</v>
       </c>
       <c r="D14" s="1">
-        <v>2300</v>
+        <v>1660.0000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
         <v>163</v>
       </c>
       <c r="D15" s="1">
-        <v>1370</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
         <v>164</v>
       </c>
       <c r="D16" s="1">
-        <v>1140</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D17" s="1">
-        <v>740</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D18" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D19" s="1">
-        <v>600</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
         <v>164</v>
       </c>
       <c r="D20" s="1">
-        <v>750</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D21" s="1">
-        <v>635</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1">
-        <v>470</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D23" s="1">
-        <v>39.999999999999993</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D24" s="1">
-        <v>-10.000000000000011</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C25" t="s">
         <v>164</v>
       </c>
       <c r="D25" s="1">
-        <v>100</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D26" s="1">
-        <v>420</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D27" s="1">
-        <v>1939.9999999999998</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
         <v>164</v>
       </c>
       <c r="D28" s="1">
-        <v>1530</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D29" s="1">
-        <v>700</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D30" s="1">
-        <v>800</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D31" s="1">
-        <v>440.00000000000006</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
         <v>164</v>
       </c>
       <c r="D32" s="1">
-        <v>525</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D33" s="1">
-        <v>175</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D34" s="1">
-        <v>600</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C35" t="s">
         <v>164</v>
       </c>
       <c r="D35" s="1">
-        <v>300</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D36" s="1">
-        <v>280</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>240</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D38" s="1">
-        <v>-85.000000000000014</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D39" s="1">
-        <v>170</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>140</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D41" s="1">
-        <v>-300</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C42" t="s">
         <v>163</v>
       </c>
       <c r="D42" s="1">
-        <v>1630</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C43" t="s">
         <v>164</v>
       </c>
       <c r="D43" s="1">
-        <v>1800</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D44" s="1">
-        <v>1880</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D45" s="1">
-        <v>1190</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>220</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D46" s="1">
-        <v>1270</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D47" s="1">
-        <v>1325</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C48" t="s">
         <v>166</v>
@@ -1755,100 +1755,100 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D49" s="1">
-        <v>700</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C50" t="s">
         <v>164</v>
       </c>
       <c r="D50" s="1">
-        <v>450</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C51" t="s">
         <v>164</v>
       </c>
       <c r="D51" s="1">
-        <v>300</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D52" s="1">
-        <v>45</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" s="1">
-        <v>1770</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C55" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="1">
-        <v>1470</v>
+        <v>985.00000000000011</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1867,461 +1867,461 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s">
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>930.00000000000011</v>
+        <v>980.00000000000011</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
         <v>222</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="1">
-        <v>860</v>
+        <v>950</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
         <v>222</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D59" s="1">
-        <v>950</v>
+        <v>930.00000000000011</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D60" s="1">
-        <v>700</v>
+        <v>919.99999999999989</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D61" s="1">
-        <v>600</v>
+        <v>910</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D62" s="1">
-        <v>60</v>
+        <v>910</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C63" t="s">
         <v>164</v>
       </c>
       <c r="D63" s="1">
-        <v>350</v>
+        <v>905.00000000000011</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D64" s="1">
-        <v>-39.999999999999993</v>
+        <v>900</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
         <v>163</v>
       </c>
       <c r="D65" s="1">
-        <v>-70.000000000000014</v>
+        <v>869.99999999999989</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
         <v>222</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D66" s="1">
-        <v>70</v>
+        <v>860</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C67" t="s">
         <v>164</v>
       </c>
       <c r="D67" s="1">
-        <v>50</v>
+        <v>860</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D68" s="1">
-        <v>1440</v>
+        <v>850</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D69" s="1">
-        <v>1380</v>
+        <v>840</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
         <v>164</v>
       </c>
       <c r="D70" s="1">
-        <v>1140</v>
+        <v>836.66666666666674</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D71" s="1">
-        <v>1190</v>
+        <v>830.00000000000011</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s">
         <v>166</v>
       </c>
       <c r="D72" s="1">
-        <v>1100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D73" s="1">
-        <v>905.00000000000011</v>
+        <v>800</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
         <v>167</v>
       </c>
       <c r="D74" s="1">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D75" s="1">
-        <v>670</v>
+        <v>800</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D76" s="1">
-        <v>80</v>
+        <v>800</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D77" s="1">
-        <v>260</v>
+        <v>780.00000000000011</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
         <v>164</v>
       </c>
       <c r="D78" s="1">
-        <v>320</v>
+        <v>750</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D79" s="1">
-        <v>185</v>
+        <v>750</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D80" s="1">
-        <v>140</v>
+        <v>740</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C81" t="s">
         <v>164</v>
       </c>
       <c r="D81" s="1">
-        <v>195</v>
+        <v>739.99999999999989</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s">
         <v>163</v>
       </c>
       <c r="D82" s="1">
-        <v>240</v>
+        <v>730.00000000000011</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D83" s="1">
-        <v>270</v>
+        <v>715</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D84" s="1">
-        <v>10</v>
+        <v>700</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B85" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D85" s="1">
-        <v>1660.0000000000002</v>
+        <v>700</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D86" s="1">
-        <v>869.99999999999989</v>
+        <v>700</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C87" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D87" s="1">
-        <v>1040</v>
+        <v>700</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B88" t="s">
         <v>225</v>
       </c>
       <c r="C88" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D88" s="1">
-        <v>1220</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D89" s="1">
         <v>700</v>
@@ -2329,1085 +2329,1085 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B90" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C90" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D90" s="1">
-        <v>860</v>
+        <v>687.5</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C91" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D91" s="1">
-        <v>600</v>
+        <v>680</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C92" t="s">
         <v>165</v>
       </c>
       <c r="D92" s="1">
-        <v>530</v>
+        <v>670</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C93" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D93" s="1">
-        <v>122.5000000000001</v>
+        <v>660</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D94" s="1">
-        <v>500</v>
+        <v>635</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="B95" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C95" t="s">
         <v>163</v>
       </c>
       <c r="D95" s="1">
-        <v>140</v>
+        <v>635</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C96" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D96" s="1">
-        <v>250</v>
+        <v>630.00000000000011</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C97" t="s">
         <v>164</v>
       </c>
       <c r="D97" s="1">
-        <v>190</v>
+        <v>630</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C98" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D98" s="1">
-        <v>180</v>
+        <v>600</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D99" s="1">
-        <v>87.5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C100" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D100" s="1">
-        <v>-240</v>
+        <v>600</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C101" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D101" s="1">
-        <v>40</v>
+        <v>600</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C102" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D102" s="1">
-        <v>1230</v>
+        <v>600</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D103" s="1">
-        <v>1620</v>
+        <v>600</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C104" t="s">
         <v>164</v>
       </c>
       <c r="D104" s="1">
-        <v>1450</v>
+        <v>569.99999999999989</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C105" t="s">
         <v>164</v>
       </c>
       <c r="D105" s="1">
-        <v>980.00000000000011</v>
+        <v>560</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D106" s="1">
-        <v>1000</v>
+        <v>560</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D107" s="1">
-        <v>400</v>
+        <v>530</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B108" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C108" t="s">
         <v>164</v>
       </c>
       <c r="D108" s="1">
-        <v>680</v>
+        <v>525</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C109" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D109" s="1">
-        <v>660</v>
+        <v>525</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C110" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D110" s="1">
-        <v>190</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C111" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D111" s="1">
-        <v>-60.000000000000007</v>
+        <v>500</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C112" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D112" s="1">
-        <v>240</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C113" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D113" s="1">
-        <v>160</v>
+        <v>470</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D114" s="1">
-        <v>53.333333333333336</v>
+        <v>470</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C115" t="s">
         <v>164</v>
       </c>
       <c r="D115" s="1">
-        <v>100</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C116" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D116" s="1">
-        <v>50</v>
+        <v>440.00000000000006</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D117" s="1">
-        <v>200</v>
+        <v>440.00000000000006</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="B118" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C118" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D118" s="1">
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>211</v>
+        <v>90</v>
       </c>
       <c r="B119" t="s">
         <v>227</v>
       </c>
       <c r="C119" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D119" s="1">
-        <v>-290</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B120" t="s">
         <v>223</v>
       </c>
       <c r="C120" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D120" s="1">
-        <v>1810.0000000000002</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C121" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D121" s="1">
-        <v>1250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C122" t="s">
         <v>164</v>
       </c>
       <c r="D122" s="1">
-        <v>1500</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="B123" t="s">
         <v>223</v>
       </c>
       <c r="C123" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D123" s="1">
-        <v>1340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C124" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D124" s="1">
-        <v>400</v>
+        <v>320</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C125" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D125" s="1">
-        <v>900</v>
+        <v>300</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C126" t="s">
         <v>164</v>
       </c>
       <c r="D126" s="1">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B127" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C127" t="s">
         <v>164</v>
       </c>
       <c r="D127" s="1">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C128" t="s">
         <v>165</v>
       </c>
       <c r="D128" s="1">
-        <v>210</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B129" t="s">
         <v>223</v>
       </c>
       <c r="C129" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D129" s="1">
-        <v>-50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="B130" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D130" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C131" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D131" s="1">
-        <v>-300</v>
+        <v>300</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="B132" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C132" t="s">
         <v>162</v>
       </c>
       <c r="D132" s="1">
-        <v>1960.0000000000002</v>
+        <v>300</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C133" t="s">
         <v>164</v>
       </c>
       <c r="D133" s="1">
-        <v>1720</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C134" t="s">
         <v>164</v>
       </c>
       <c r="D134" s="1">
-        <v>1330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="B135" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C135" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D135" s="1">
-        <v>1280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="B136" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C136" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D136" s="1">
-        <v>910</v>
+        <v>300</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="B137" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C137" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D137" s="1">
-        <v>1100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="B138" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C138" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D138" s="1">
-        <v>700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="B139" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C139" t="s">
         <v>165</v>
       </c>
       <c r="D139" s="1">
-        <v>715</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B140" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C140" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D140" s="1">
-        <v>70.000000000000014</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C141" t="s">
         <v>164</v>
       </c>
       <c r="D141" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B142" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C142" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D142" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="B143" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C143" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D143" s="1">
-        <v>170</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="B144" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C144" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D144" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B145" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C145" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D145" s="1">
-        <v>-290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C146" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D146" s="1">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="B147" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C147" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D147" s="1">
-        <v>2235</v>
+        <v>300</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C148" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D148" s="1">
-        <v>1590</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="B149" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C149" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D149" s="1">
-        <v>1340</v>
+        <v>300</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="B150" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C150" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D150" s="1">
-        <v>1370</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B151" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C151" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D151" s="1">
-        <v>687.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C152" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D152" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B153" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C153" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D153" s="1">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B154" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C154" t="s">
         <v>165</v>
       </c>
       <c r="D154" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="B155" t="s">
         <v>218</v>
       </c>
       <c r="C155" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D155" s="1">
-        <v>-70.000000000000014</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C156" t="s">
         <v>164</v>
       </c>
       <c r="D156" s="1">
-        <v>140</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C157" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D157" s="1">
-        <v>252.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C158" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D158" s="1">
-        <v>1600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="B159" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C159" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D159" s="1">
-        <v>170</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="B160" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D160" s="1">
-        <v>1010</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="B161" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C161" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D161" s="1">
-        <v>830.00000000000011</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B162" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D162" s="1">
-        <v>750</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="B163" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C163" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D163" s="1">
-        <v>635</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D164" s="1">
-        <v>919.99999999999989</v>
+        <v>300</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="B165" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D165" s="1">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C166" t="s">
         <v>164</v>
       </c>
       <c r="D166" s="1">
-        <v>560</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="B167" t="s">
         <v>226</v>
@@ -3416,544 +3416,544 @@
         <v>164</v>
       </c>
       <c r="D167" s="1">
-        <v>470</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B168" t="s">
         <v>226</v>
       </c>
       <c r="C168" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D168" s="1">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C169" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D169" s="1">
-        <v>180</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B170" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C170" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D170" s="1">
-        <v>-200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C171" t="s">
         <v>162</v>
       </c>
       <c r="D171" s="1">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B172" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C172" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D172" s="1">
-        <v>-240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B173" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C173" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D173" s="1">
-        <v>-270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="B174" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C174" t="s">
         <v>162</v>
       </c>
       <c r="D174" s="1">
-        <v>2330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="B175" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C175" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D175" s="1">
-        <v>836.66666666666674</v>
+        <v>300</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="B176" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D176" s="1">
-        <v>1370</v>
+        <v>300</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="B177" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C177" t="s">
         <v>164</v>
       </c>
       <c r="D177" s="1">
-        <v>1185</v>
+        <v>300</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="B178" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C178" t="s">
         <v>163</v>
       </c>
       <c r="D178" s="1">
-        <v>910</v>
+        <v>300</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="B179" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C179" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D179" s="1">
-        <v>850</v>
+        <v>300</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="B180" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C180" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D180" s="1">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="B181" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C181" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D181" s="1">
-        <v>739.99999999999989</v>
+        <v>300</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="B182" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C182" t="s">
         <v>164</v>
       </c>
       <c r="D182" s="1">
-        <v>569.99999999999989</v>
+        <v>300</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C183" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D183" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="B184" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C184" t="s">
         <v>164</v>
       </c>
       <c r="D184" s="1">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B185" t="s">
         <v>215</v>
       </c>
       <c r="C185" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D185" s="1">
-        <v>-50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B186" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C186" t="s">
         <v>164</v>
       </c>
       <c r="D186" s="1">
-        <v>175</v>
+        <v>300</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B187" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C187" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D187" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="B188" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C188" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D188" s="1">
-        <v>2100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C189" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D189" s="1">
-        <v>1630</v>
+        <v>300</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C190" t="s">
         <v>163</v>
       </c>
       <c r="D190" s="1">
-        <v>730.00000000000011</v>
+        <v>300</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="B191" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C191" t="s">
         <v>163</v>
       </c>
       <c r="D191" s="1">
-        <v>780.00000000000011</v>
+        <v>300</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="B192" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C192" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D192" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="B193" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C193" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D193" s="1">
-        <v>985.00000000000011</v>
+        <v>300</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="B194" t="s">
         <v>217</v>
       </c>
       <c r="C194" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D194" s="1">
-        <v>1080</v>
+        <v>300</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="B195" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C195" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D195" s="1">
-        <v>630</v>
+        <v>300</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="B196" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C196" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D196" s="1">
-        <v>525</v>
+        <v>300</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="B197" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C197" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D197" s="1">
-        <v>560</v>
+        <v>300</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="B198" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C198" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D198" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="B199" t="s">
         <v>217</v>
       </c>
       <c r="C199" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D199" s="1">
-        <v>440.00000000000006</v>
+        <v>300</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C200" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D200" s="1">
-        <v>335</v>
+        <v>300</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="B201" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C201" t="s">
         <v>163</v>
       </c>
       <c r="D201" s="1">
-        <v>-79.999999999999986</v>
+        <v>300</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C202" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D202" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B203" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C203" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D203" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B204" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C204" t="s">
         <v>163</v>
       </c>
       <c r="D204" s="1">
-        <v>-250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B205" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C205" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D205" s="1">
-        <v>40</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D205">
-    <sortCondition ref="B1:B205"/>
+    <sortCondition descending="1" ref="D191:D205"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WCW_2025 - players and prices.xlsx
+++ b/WCW_2025 - players and prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lexig\Desktop\FFBall_confidence_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E1CC0F-BAF6-47E8-A939-98D10F24DA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E7E0C3-54FC-4640-804C-25C7187C43F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CBDCAE-DA92-4F23-A09B-CD9A6B8BA89D}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C8CBDCAE-DA92-4F23-A09B-CD9A6B8BA89D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="185">
   <si>
     <t>Player</t>
   </si>
@@ -51,18 +51,12 @@
     <t>Justin Jefferson</t>
   </si>
   <si>
-    <t>Jahmyr Gibbs</t>
-  </si>
-  <si>
     <t>Saquon Barkley</t>
   </si>
   <si>
     <t>Bo Nix</t>
   </si>
   <si>
-    <t>Amon-Ra St. Brown</t>
-  </si>
-  <si>
     <t>Josh Jacobs</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>James Cook</t>
   </si>
   <si>
-    <t>Jared Goff</t>
-  </si>
-  <si>
     <t>Nico Collins</t>
   </si>
   <si>
@@ -90,12 +81,6 @@
     <t>Derrick Henry</t>
   </si>
   <si>
-    <t>Patrick Mahomes II</t>
-  </si>
-  <si>
-    <t>Stefon Diggs</t>
-  </si>
-  <si>
     <t>Russell Wilson</t>
   </si>
   <si>
@@ -105,9 +90,6 @@
     <t>A.J. Brown</t>
   </si>
   <si>
-    <t>David Montgomery</t>
-  </si>
-  <si>
     <t>Kyren Williams</t>
   </si>
   <si>
@@ -117,9 +99,6 @@
     <t>DeVonta Smith</t>
   </si>
   <si>
-    <t>Chris Godwin</t>
-  </si>
-  <si>
     <t>Courtland Sutton</t>
   </si>
   <si>
@@ -135,9 +114,6 @@
     <t>Jordan Addison</t>
   </si>
   <si>
-    <t>Jameson Williams</t>
-  </si>
-  <si>
     <t>Daniel Jones</t>
   </si>
   <si>
@@ -162,15 +138,9 @@
     <t>Khalil Shakir</t>
   </si>
   <si>
-    <t>Kareem Hunt</t>
-  </si>
-  <si>
     <t>Rachaad White</t>
   </si>
   <si>
-    <t>Justin Fields</t>
-  </si>
-  <si>
     <t>Austin Ekeler</t>
   </si>
   <si>
@@ -180,33 +150,21 @@
     <t>Zay Flowers</t>
   </si>
   <si>
-    <t>Xavier Worthy</t>
-  </si>
-  <si>
     <t>Jayden Reed</t>
   </si>
   <si>
     <t>Ka'imi Fairbairn</t>
   </si>
   <si>
-    <t>Austin Seibert</t>
-  </si>
-  <si>
     <t>Will Reichard</t>
   </si>
   <si>
-    <t>Travis Kelce</t>
-  </si>
-  <si>
     <t>Najee Harris</t>
   </si>
   <si>
     <t>Dallas Goedert</t>
   </si>
   <si>
-    <t>Sam LaPorta</t>
-  </si>
-  <si>
     <t>Quentin Johnston</t>
   </si>
   <si>
@@ -216,9 +174,6 @@
     <t>Denver Broncos</t>
   </si>
   <si>
-    <t>Jake Bates</t>
-  </si>
-  <si>
     <t>Marcus Mariota</t>
   </si>
   <si>
@@ -228,12 +183,6 @@
     <t>Zach Ertz</t>
   </si>
   <si>
-    <t>Harrison Butker</t>
-  </si>
-  <si>
-    <t>Tank Dell</t>
-  </si>
-  <si>
     <t>Pittsburgh Steelers</t>
   </si>
   <si>
@@ -282,9 +231,6 @@
     <t>Javonte Williams</t>
   </si>
   <si>
-    <t>DeAndre Hopkins</t>
-  </si>
-  <si>
     <t>Tyler Bass</t>
   </si>
   <si>
@@ -309,18 +255,12 @@
     <t>Amari Cooper</t>
   </si>
   <si>
-    <t>Justice Hill</t>
-  </si>
-  <si>
     <t>Jalen McMillan</t>
   </si>
   <si>
     <t>Dalton Kincaid</t>
   </si>
   <si>
-    <t>Detroit Lions</t>
-  </si>
-  <si>
     <t>Philadelphia Eagles</t>
   </si>
   <si>
@@ -336,21 +276,9 @@
     <t>Los Angeles Rams</t>
   </si>
   <si>
-    <t>Noah Brown</t>
-  </si>
-  <si>
     <t>Zane Gonzalez</t>
   </si>
   <si>
-    <t>Kansas City Chiefs</t>
-  </si>
-  <si>
-    <t>Noah Gray</t>
-  </si>
-  <si>
-    <t>Isiah Pacheco</t>
-  </si>
-  <si>
     <t>Dalton Schultz</t>
   </si>
   <si>
@@ -369,9 +297,6 @@
     <t>Calvin Austin III</t>
   </si>
   <si>
-    <t>Spencer Shrader</t>
-  </si>
-  <si>
     <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
@@ -390,12 +315,6 @@
     <t>Tutu Atwell</t>
   </si>
   <si>
-    <t>Tim Patrick</t>
-  </si>
-  <si>
-    <t>Samaje Perine</t>
-  </si>
-  <si>
     <t>Olamide Zaccheaus</t>
   </si>
   <si>
@@ -423,9 +342,6 @@
     <t>Jalen Nailor</t>
   </si>
   <si>
-    <t>Justin Watson</t>
-  </si>
-  <si>
     <t>Colby Parkinson</t>
   </si>
   <si>
@@ -465,9 +381,6 @@
     <t>Rakim Jarrett</t>
   </si>
   <si>
-    <t>Kalif Raymond</t>
-  </si>
-  <si>
     <t>Darnell Washington</t>
   </si>
   <si>
@@ -477,9 +390,6 @@
     <t>Luke McCaffrey</t>
   </si>
   <si>
-    <t>JuJu Smith-Schuster</t>
-  </si>
-  <si>
     <t>Tucker Fisk</t>
   </si>
   <si>
@@ -489,9 +399,6 @@
     <t>Nate Adkins</t>
   </si>
   <si>
-    <t>Mecole Hardman Jr.</t>
-  </si>
-  <si>
     <t>Charlie Kolar</t>
   </si>
   <si>
@@ -501,9 +408,6 @@
     <t>Xavier Hutchinson</t>
   </si>
   <si>
-    <t>Jalen Reagor</t>
-  </si>
-  <si>
     <t>Stone Smartt</t>
   </si>
   <si>
@@ -597,9 +501,6 @@
     <t>Dare Ogunbowale</t>
   </si>
   <si>
-    <t>Michael Burton</t>
-  </si>
-  <si>
     <t>Ronnie Rivers</t>
   </si>
   <si>
@@ -609,51 +510,18 @@
     <t>Trent Sherfield Sr.</t>
   </si>
   <si>
-    <t>Peyton Hendershot</t>
-  </si>
-  <si>
-    <t>Kyle Allen</t>
-  </si>
-  <si>
-    <t>Hendon Hooker</t>
-  </si>
-  <si>
-    <t>K.J. Osborn</t>
-  </si>
-  <si>
     <t>Bo Melton</t>
   </si>
   <si>
-    <t>Brock Wright</t>
-  </si>
-  <si>
-    <t>Laviska Shenault Jr.</t>
-  </si>
-  <si>
     <t>Chris Rodriguez Jr.</t>
   </si>
   <si>
-    <t>Aaron Shampklin</t>
-  </si>
-  <si>
-    <t>Jonathan Ward</t>
-  </si>
-  <si>
     <t>Ty Chandler</t>
   </si>
   <si>
-    <t>Carson Steele</t>
-  </si>
-  <si>
-    <t>Brycen Tremayne</t>
-  </si>
-  <si>
     <t>Dameon Pierce</t>
   </si>
   <si>
-    <t>Carson Wentz</t>
-  </si>
-  <si>
     <t>Nick Mullens</t>
   </si>
   <si>
@@ -687,9 +555,6 @@
     <t>MIN</t>
   </si>
   <si>
-    <t>DET</t>
-  </si>
-  <si>
     <t>DEN</t>
   </si>
   <si>
@@ -702,13 +567,19 @@
     <t>HOU</t>
   </si>
   <si>
-    <t>KC</t>
-  </si>
-  <si>
     <t>PIT</t>
   </si>
   <si>
     <t>LAC</t>
+  </si>
+  <si>
+    <t>DJ Chark</t>
+  </si>
+  <si>
+    <t>Tyler Higbee</t>
+  </si>
+  <si>
+    <t>Payne Durham</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B320F96-1D01-4370-99B2-3C905ABA1AE7}">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127:D205"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,1816 +957,1816 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1">
-        <v>2420</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1">
-        <v>2330</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1">
-        <v>2300</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1">
-        <v>2235</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1">
-        <v>2100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1">
-        <v>1960.0000000000002</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1">
-        <v>1939.9999999999998</v>
+        <v>630.00000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="D9" s="1">
-        <v>1880</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D10" s="1">
-        <v>1810.0000000000002</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D11" s="1">
-        <v>1800</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D12" s="1">
-        <v>1770</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1">
-        <v>1720</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D14" s="1">
-        <v>1660.0000000000002</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="D15" s="1">
-        <v>1630</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D16" s="1">
-        <v>1630</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D17" s="1">
-        <v>1620</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D18" s="1">
-        <v>1600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D19" s="1">
-        <v>1590</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D20" s="1">
-        <v>1530</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D21" s="1">
-        <v>1500</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="D22" s="1">
-        <v>1470</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D23" s="1">
-        <v>1460</v>
+        <v>740</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D24" s="1">
-        <v>1450</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D25" s="1">
-        <v>1440</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="D26" s="1">
-        <v>1380</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="D27" s="1">
-        <v>1370</v>
+        <v>800</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D28" s="1">
-        <v>1370</v>
+        <v>1939.9999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="D29" s="1">
-        <v>1370</v>
+        <v>440.00000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D30" s="1">
-        <v>1340</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D31" s="1">
-        <v>1340</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D32" s="1">
-        <v>1330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="D33" s="1">
-        <v>1325</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="D34" s="1">
-        <v>1280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D35" s="1">
-        <v>1270</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D36" s="1">
-        <v>1250</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D37" s="1">
-        <v>1230</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D38" s="1">
-        <v>1220</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D39" s="1">
-        <v>1190</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D40" s="1">
-        <v>1190</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D41" s="1">
-        <v>1185</v>
+        <v>700</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="D42" s="1">
-        <v>1170</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1">
-        <v>1140</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D44" s="1">
-        <v>1140</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D45" s="1">
-        <v>1130</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="B46" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="D46" s="1">
-        <v>1100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="D47" s="1">
-        <v>1100</v>
+        <v>950</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="D48" s="1">
-        <v>1100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D49" s="1">
-        <v>1080</v>
+        <v>980.00000000000011</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D50" s="1">
-        <v>1040</v>
+        <v>930.00000000000011</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D51" s="1">
-        <v>1010</v>
+        <v>860</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="D52" s="1">
-        <v>1000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="D53" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="D54" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>985.00000000000011</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D56" s="1">
-        <v>980.00000000000011</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="B57" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D57" s="1">
-        <v>980.00000000000011</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D58" s="1">
-        <v>950</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D59" s="1">
-        <v>930.00000000000011</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="B60" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D60" s="1">
-        <v>919.99999999999989</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="D61" s="1">
-        <v>910</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D62" s="1">
-        <v>910</v>
+        <v>670</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D63" s="1">
-        <v>905.00000000000011</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D64" s="1">
-        <v>900</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D65" s="1">
-        <v>869.99999999999989</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D66" s="1">
-        <v>860</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D67" s="1">
-        <v>860</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D68" s="1">
-        <v>850</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="D69" s="1">
-        <v>840</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D70" s="1">
-        <v>836.66666666666674</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="D71" s="1">
-        <v>830.00000000000011</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="D72" s="1">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="D73" s="1">
-        <v>800</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="D74" s="1">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="D75" s="1">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="D76" s="1">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D77" s="1">
-        <v>780.00000000000011</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D78" s="1">
-        <v>750</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D79" s="1">
-        <v>750</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D80" s="1">
-        <v>740</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D81" s="1">
-        <v>739.99999999999989</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D82" s="1">
-        <v>730.00000000000011</v>
+        <v>980.00000000000011</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D83" s="1">
-        <v>715</v>
+        <v>680</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B84" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="D84" s="1">
-        <v>700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D85" s="1">
-        <v>700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="C86" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="D86" s="1">
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="D87" s="1">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="D88" s="1">
-        <v>700</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="C89" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="D89" s="1">
-        <v>700</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="B90" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="C90" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D90" s="1">
-        <v>687.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D91" s="1">
-        <v>680</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="D92" s="1">
-        <v>670</v>
+        <v>600</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="C93" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="D93" s="1">
-        <v>660</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C94" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D94" s="1">
-        <v>635</v>
+        <v>1810.0000000000002</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C95" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D95" s="1">
-        <v>635</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D96" s="1">
-        <v>630.00000000000011</v>
+        <v>330</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D97" s="1">
-        <v>630</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C98" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D98" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="D99" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="B100" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="D100" s="1">
-        <v>600</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C101" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="D101" s="1">
-        <v>600</v>
+        <v>1960.0000000000002</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="B102" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="C102" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="D102" s="1">
-        <v>600</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="B103" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="C103" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="D103" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B104" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="C104" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D104" s="1">
-        <v>569.99999999999989</v>
+        <v>910</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B105" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="C105" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D105" s="1">
-        <v>560</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="B106" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="C106" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D106" s="1">
-        <v>560</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B107" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="C107" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="D107" s="1">
-        <v>530</v>
+        <v>715</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="C108" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D108" s="1">
-        <v>525</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="C109" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="D109" s="1">
-        <v>525</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="C110" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D110" s="1">
-        <v>500</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="D111" s="1">
-        <v>500</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="C112" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D112" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="C113" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D113" s="1">
-        <v>470</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B114" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C114" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="D114" s="1">
-        <v>470</v>
+        <v>800</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B115" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="C115" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D115" s="1">
-        <v>450</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="C116" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="D116" s="1">
-        <v>440.00000000000006</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="C117" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D117" s="1">
-        <v>440.00000000000006</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="C118" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D118" s="1">
-        <v>420</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="B119" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="C119" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="D119" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B120" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="C120" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="D120" s="1">
-        <v>400</v>
+        <v>687.5</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B121" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="C121" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D121" s="1">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="C122" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D122" s="1">
-        <v>335</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="C123" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D123" s="1">
-        <v>330</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="C124" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D124" s="1">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B125" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" t="s">
         <v>135</v>
       </c>
-      <c r="B125" t="s">
-        <v>214</v>
-      </c>
-      <c r="C125" t="s">
-        <v>164</v>
-      </c>
       <c r="D125" s="1">
-        <v>300</v>
+        <v>750</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>61</v>
+      </c>
+      <c r="B126" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" t="s">
         <v>134</v>
       </c>
-      <c r="B126" t="s">
-        <v>221</v>
-      </c>
-      <c r="C126" t="s">
-        <v>164</v>
-      </c>
       <c r="D126" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="C127" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D127" s="1">
-        <v>300</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="B128" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C128" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D128" s="1">
-        <v>300</v>
+        <v>830.00000000000011</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="B129" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D129" s="1">
-        <v>300</v>
+        <v>635</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="B130" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="C130" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="D130" s="1">
         <v>300</v>
@@ -2903,27 +2774,27 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="B131" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="C131" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D131" s="1">
-        <v>300</v>
+        <v>919.99999999999989</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="B132" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C132" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="D132" s="1">
         <v>300</v>
@@ -2931,55 +2802,55 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="C133" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D133" s="1">
-        <v>300</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="B134" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C134" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D134" s="1">
-        <v>300</v>
+        <v>560</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="B135" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="C135" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D135" s="1">
-        <v>300</v>
+        <v>470</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B136" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="C136" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D136" s="1">
         <v>300</v>
@@ -2987,83 +2858,83 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="B137" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="C137" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="D137" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="B138" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="C138" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D138" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>159</v>
+        <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="C139" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="D139" s="1">
-        <v>300</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="B140" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="C140" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D140" s="1">
-        <v>300</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="B141" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="C141" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D141" s="1">
-        <v>300</v>
+        <v>910</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="C142" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="D142" s="1">
         <v>300</v>
@@ -3071,83 +2942,83 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="B143" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="C143" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D143" s="1">
-        <v>300</v>
+        <v>850</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="B144" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="C144" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D144" s="1">
-        <v>300</v>
+        <v>851</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="B145" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="C145" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D145" s="1">
-        <v>300</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="B146" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="C146" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D146" s="1">
-        <v>300</v>
+        <v>739.99999999999989</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B147" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="C147" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D147" s="1">
-        <v>300</v>
+        <v>569.99999999999989</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="B148" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="C148" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D148" s="1">
         <v>300</v>
@@ -3155,13 +3026,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="B149" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="C149" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D149" s="1">
         <v>300</v>
@@ -3169,13 +3040,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="C150" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D150" s="1">
         <v>300</v>
@@ -3183,97 +3054,97 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B151" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C151" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D151" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="B152" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C152" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D152" s="1">
-        <v>300</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="C153" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D153" s="1">
-        <v>300</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="B154" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="C154" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="D154" s="1">
-        <v>300</v>
+        <v>985.00000000000011</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="B155" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="C155" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D155" s="1">
-        <v>300</v>
+        <v>780.00000000000011</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="B156" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="C156" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D156" s="1">
-        <v>300</v>
+        <v>730.00000000000011</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B157" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C157" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D157" s="1">
         <v>300</v>
@@ -3281,13 +3152,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B158" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="C158" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D158" s="1">
         <v>300</v>
@@ -3295,665 +3166,91 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="B159" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="C159" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="D159" s="1">
-        <v>300</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="C160" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D160" s="1">
-        <v>300</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="B161" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="C161" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D161" s="1">
-        <v>300</v>
+        <v>560</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B162" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D162" s="1">
-        <v>300</v>
+        <v>440.00000000000006</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B163" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D163" s="1">
-        <v>300</v>
+        <v>335</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B164" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C164" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D164" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>194</v>
-      </c>
-      <c r="B165" t="s">
-        <v>225</v>
-      </c>
-      <c r="C165" t="s">
-        <v>165</v>
-      </c>
-      <c r="D165" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>171</v>
-      </c>
-      <c r="B166" t="s">
-        <v>224</v>
-      </c>
-      <c r="C166" t="s">
-        <v>164</v>
-      </c>
-      <c r="D166" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>177</v>
-      </c>
-      <c r="B167" t="s">
-        <v>226</v>
-      </c>
-      <c r="C167" t="s">
-        <v>164</v>
-      </c>
-      <c r="D167" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>195</v>
-      </c>
-      <c r="B168" t="s">
-        <v>226</v>
-      </c>
-      <c r="C168" t="s">
-        <v>162</v>
-      </c>
-      <c r="D168" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>169</v>
-      </c>
-      <c r="B169" t="s">
-        <v>219</v>
-      </c>
-      <c r="C169" t="s">
-        <v>163</v>
-      </c>
-      <c r="D169" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>186</v>
-      </c>
-      <c r="B170" t="s">
-        <v>222</v>
-      </c>
-      <c r="C170" t="s">
-        <v>165</v>
-      </c>
-      <c r="D170" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>222</v>
-      </c>
-      <c r="C171" t="s">
-        <v>162</v>
-      </c>
-      <c r="D171" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>185</v>
-      </c>
-      <c r="B172" t="s">
-        <v>227</v>
-      </c>
-      <c r="C172" t="s">
-        <v>165</v>
-      </c>
-      <c r="D172" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>198</v>
-      </c>
-      <c r="B173" t="s">
-        <v>222</v>
-      </c>
-      <c r="C173" t="s">
-        <v>164</v>
-      </c>
-      <c r="D173" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>192</v>
-      </c>
-      <c r="B174" t="s">
-        <v>227</v>
-      </c>
-      <c r="C174" t="s">
-        <v>162</v>
-      </c>
-      <c r="D174" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>196</v>
-      </c>
-      <c r="B175" t="s">
-        <v>220</v>
-      </c>
-      <c r="C175" t="s">
-        <v>162</v>
-      </c>
-      <c r="D175" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>208</v>
-      </c>
-      <c r="B176" t="s">
-        <v>225</v>
-      </c>
-      <c r="C176" t="s">
-        <v>162</v>
-      </c>
-      <c r="D176" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>206</v>
-      </c>
-      <c r="B177" t="s">
-        <v>217</v>
-      </c>
-      <c r="C177" t="s">
-        <v>164</v>
-      </c>
-      <c r="D177" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>172</v>
-      </c>
-      <c r="B178" t="s">
-        <v>216</v>
-      </c>
-      <c r="C178" t="s">
-        <v>163</v>
-      </c>
-      <c r="D178" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>209</v>
-      </c>
-      <c r="B179" t="s">
-        <v>219</v>
-      </c>
-      <c r="C179" t="s">
-        <v>162</v>
-      </c>
-      <c r="D179" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>210</v>
-      </c>
-      <c r="B180" t="s">
-        <v>224</v>
-      </c>
-      <c r="C180" t="s">
-        <v>162</v>
-      </c>
-      <c r="D180" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>199</v>
-      </c>
-      <c r="B181" t="s">
-        <v>220</v>
-      </c>
-      <c r="C181" t="s">
-        <v>165</v>
-      </c>
-      <c r="D181" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>200</v>
-      </c>
-      <c r="B182" t="s">
-        <v>227</v>
-      </c>
-      <c r="C182" t="s">
-        <v>164</v>
-      </c>
-      <c r="D182" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>184</v>
-      </c>
-      <c r="B183" t="s">
-        <v>223</v>
-      </c>
-      <c r="C183" t="s">
-        <v>164</v>
-      </c>
-      <c r="D183" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>193</v>
-      </c>
-      <c r="B184" t="s">
-        <v>219</v>
-      </c>
-      <c r="C184" t="s">
-        <v>164</v>
-      </c>
-      <c r="D184" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>188</v>
-      </c>
-      <c r="B185" t="s">
-        <v>215</v>
-      </c>
-      <c r="C185" t="s">
-        <v>164</v>
-      </c>
-      <c r="D185" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>197</v>
-      </c>
-      <c r="B186" t="s">
-        <v>217</v>
-      </c>
-      <c r="C186" t="s">
-        <v>164</v>
-      </c>
-      <c r="D186" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>173</v>
-      </c>
-      <c r="B187" t="s">
-        <v>216</v>
-      </c>
-      <c r="C187" t="s">
-        <v>163</v>
-      </c>
-      <c r="D187" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>175</v>
-      </c>
-      <c r="B188" t="s">
-        <v>222</v>
-      </c>
-      <c r="C188" t="s">
-        <v>163</v>
-      </c>
-      <c r="D188" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>174</v>
-      </c>
-      <c r="B189" t="s">
-        <v>223</v>
-      </c>
-      <c r="C189" t="s">
-        <v>163</v>
-      </c>
-      <c r="D189" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>182</v>
-      </c>
-      <c r="B190" t="s">
-        <v>215</v>
-      </c>
-      <c r="C190" t="s">
-        <v>163</v>
-      </c>
-      <c r="D190" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>178</v>
-      </c>
-      <c r="B191" t="s">
-        <v>227</v>
-      </c>
-      <c r="C191" t="s">
-        <v>163</v>
-      </c>
-      <c r="D191" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>176</v>
-      </c>
-      <c r="B192" t="s">
-        <v>222</v>
-      </c>
-      <c r="C192" t="s">
-        <v>163</v>
-      </c>
-      <c r="D192" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>179</v>
-      </c>
-      <c r="B193" t="s">
-        <v>218</v>
-      </c>
-      <c r="C193" t="s">
-        <v>163</v>
-      </c>
-      <c r="D193" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>181</v>
-      </c>
-      <c r="B194" t="s">
-        <v>217</v>
-      </c>
-      <c r="C194" t="s">
-        <v>163</v>
-      </c>
-      <c r="D194" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>180</v>
-      </c>
-      <c r="B195" t="s">
-        <v>221</v>
-      </c>
-      <c r="C195" t="s">
-        <v>163</v>
-      </c>
-      <c r="D195" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>187</v>
-      </c>
-      <c r="B196" t="s">
-        <v>226</v>
-      </c>
-      <c r="C196" t="s">
-        <v>163</v>
-      </c>
-      <c r="D196" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>205</v>
-      </c>
-      <c r="B197" t="s">
-        <v>225</v>
-      </c>
-      <c r="C197" t="s">
-        <v>163</v>
-      </c>
-      <c r="D197" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>202</v>
-      </c>
-      <c r="B198" t="s">
-        <v>226</v>
-      </c>
-      <c r="C198" t="s">
-        <v>163</v>
-      </c>
-      <c r="D198" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>201</v>
-      </c>
-      <c r="B199" t="s">
-        <v>217</v>
-      </c>
-      <c r="C199" t="s">
-        <v>163</v>
-      </c>
-      <c r="D199" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>203</v>
-      </c>
-      <c r="B200" t="s">
-        <v>226</v>
-      </c>
-      <c r="C200" t="s">
-        <v>163</v>
-      </c>
-      <c r="D200" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>211</v>
-      </c>
-      <c r="B201" t="s">
-        <v>227</v>
-      </c>
-      <c r="C201" t="s">
-        <v>163</v>
-      </c>
-      <c r="D201" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>204</v>
-      </c>
-      <c r="B202" t="s">
-        <v>219</v>
-      </c>
-      <c r="C202" t="s">
-        <v>163</v>
-      </c>
-      <c r="D202" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>190</v>
-      </c>
-      <c r="B203" t="s">
-        <v>221</v>
-      </c>
-      <c r="C203" t="s">
-        <v>163</v>
-      </c>
-      <c r="D203" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>191</v>
-      </c>
-      <c r="B204" t="s">
-        <v>223</v>
-      </c>
-      <c r="C204" t="s">
-        <v>163</v>
-      </c>
-      <c r="D204" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>212</v>
-      </c>
-      <c r="B205" t="s">
-        <v>214</v>
-      </c>
-      <c r="C205" t="s">
-        <v>163</v>
-      </c>
-      <c r="D205" s="1">
-        <v>300</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D205">
-    <sortCondition descending="1" ref="D191:D205"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D186">
+    <sortCondition ref="B36:B186"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WCW_2025 - players and prices.xlsx
+++ b/WCW_2025 - players and prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lexig\Desktop\FFBall_confidence_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E7E0C3-54FC-4640-804C-25C7187C43F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C386D8-F23A-4F21-915D-CA652675A27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C8CBDCAE-DA92-4F23-A09B-CD9A6B8BA89D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CBDCAE-DA92-4F23-A09B-CD9A6B8BA89D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B320F96-1D01-4370-99B2-3C905ABA1AE7}">
   <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D93" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,707 +968,707 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1">
-        <v>500</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1">
-        <v>700</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
         <v>130</v>
       </c>
       <c r="D4" s="1">
-        <v>2420</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1">
-        <v>1170</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1">
-        <v>300</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1">
-        <v>1460</v>
+        <v>1960.0000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1">
-        <v>630.00000000000011</v>
+        <v>1939.9999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="1">
-        <v>300</v>
+        <v>1810.0000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1">
-        <v>1130</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
         <v>132</v>
       </c>
       <c r="D11" s="1">
-        <v>840</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
       </c>
       <c r="D12" s="1">
-        <v>300</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D13" s="1">
-        <v>600</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D14" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D15" s="1">
-        <v>2300</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D16" s="1">
-        <v>1370</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D17" s="1">
-        <v>300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="1">
-        <v>300</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
         <v>133</v>
       </c>
       <c r="D19" s="1">
-        <v>635</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="1">
-        <v>420</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
         <v>132</v>
       </c>
       <c r="D21" s="1">
-        <v>1140</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D22" s="1">
-        <v>750</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>172</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="1">
-        <v>740</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
         <v>132</v>
       </c>
       <c r="D24" s="1">
-        <v>470</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="1">
-        <v>300</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D26" s="1">
-        <v>700</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D27" s="1">
-        <v>800</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D28" s="1">
-        <v>1939.9999999999998</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="1">
-        <v>440.00000000000006</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
         <v>131</v>
       </c>
       <c r="D30" s="1">
-        <v>300</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
         <v>131</v>
       </c>
       <c r="D31" s="1">
-        <v>300</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D32" s="1">
-        <v>300</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" s="1">
-        <v>300</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D34" s="1">
-        <v>300</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
         <v>132</v>
       </c>
       <c r="D35" s="1">
-        <v>1530</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
         <v>132</v>
       </c>
       <c r="D36" s="1">
-        <v>600</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D37" s="1">
-        <v>525</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D38" s="1">
-        <v>300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D39" s="1">
-        <v>300</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D40" s="1">
-        <v>600</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
         <v>134</v>
       </c>
       <c r="D41" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D42" s="1">
-        <v>1470</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
         <v>130</v>
       </c>
       <c r="D43" s="1">
-        <v>300</v>
+        <v>985.00000000000011</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="1">
-        <v>1770</v>
+        <v>980.00000000000011</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="1">
-        <v>300</v>
+        <v>980.00000000000011</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
         <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D46" s="1">
-        <v>300</v>
+        <v>950</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
         <v>177</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" s="1">
-        <v>950</v>
+        <v>930.00000000000011</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C48" t="s">
         <v>133</v>
       </c>
       <c r="D48" s="1">
-        <v>300</v>
+        <v>919.99999999999989</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49" s="1">
-        <v>980.00000000000011</v>
+        <v>910</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D50" s="1">
-        <v>930.00000000000011</v>
+        <v>910</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D51" s="1">
-        <v>860</v>
+        <v>900</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
         <v>177</v>
@@ -1677,746 +1677,746 @@
         <v>132</v>
       </c>
       <c r="D52" s="1">
-        <v>350</v>
+        <v>860</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D53" s="1">
-        <v>300</v>
+        <v>851</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D54" s="1">
-        <v>600</v>
+        <v>850</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D55" s="1">
-        <v>1100</v>
+        <v>840</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D56" s="1">
-        <v>1190</v>
+        <v>830.00000000000011</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D57" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D58" s="1">
-        <v>1380</v>
+        <v>800</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D59" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D60" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D61" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D62" s="1">
-        <v>670</v>
+        <v>780.00000000000011</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D63" s="1">
-        <v>300</v>
+        <v>750</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D64" s="1">
-        <v>1440</v>
+        <v>750</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
         <v>132</v>
       </c>
       <c r="D65" s="1">
-        <v>320</v>
+        <v>740</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C66" t="s">
         <v>132</v>
       </c>
       <c r="D66" s="1">
-        <v>300</v>
+        <v>739.99999999999989</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D67" s="1">
-        <v>300</v>
+        <v>730.00000000000011</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D68" s="1">
-        <v>300</v>
+        <v>715</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D69" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D70" s="1">
-        <v>1000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D71" s="1">
-        <v>1620</v>
+        <v>700</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D72" s="1">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D73" s="1">
-        <v>1230</v>
+        <v>687.5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
         <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D74" s="1">
-        <v>300</v>
+        <v>680</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D75" s="1">
-        <v>300</v>
+        <v>670</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
         <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D76" s="1">
-        <v>300</v>
+        <v>660</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C77" t="s">
         <v>133</v>
       </c>
       <c r="D77" s="1">
-        <v>660</v>
+        <v>635</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D78" s="1">
-        <v>300</v>
+        <v>635</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
         <v>133</v>
       </c>
       <c r="D79" s="1">
-        <v>300</v>
+        <v>630.00000000000011</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D80" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s">
         <v>132</v>
       </c>
       <c r="D81" s="1">
-        <v>1450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D82" s="1">
-        <v>980.00000000000011</v>
+        <v>600</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D83" s="1">
-        <v>680</v>
+        <v>600</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="B84" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D84" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D85" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C86" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D86" s="1">
-        <v>900</v>
+        <v>569.99999999999989</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D87" s="1">
-        <v>400</v>
+        <v>560</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D88" s="1">
-        <v>1340</v>
+        <v>560</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D89" s="1">
-        <v>1250</v>
+        <v>525</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D90" s="1">
-        <v>300</v>
+        <v>525</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D91" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C92" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D92" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D93" s="1">
-        <v>300</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C94" t="s">
         <v>132</v>
       </c>
       <c r="D94" s="1">
-        <v>1810.0000000000002</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D95" s="1">
-        <v>1500</v>
+        <v>440.00000000000006</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
         <v>132</v>
       </c>
       <c r="D96" s="1">
-        <v>330</v>
+        <v>440.00000000000006</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C97" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D97" s="1">
-        <v>300</v>
+        <v>420</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C98" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D98" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B99" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D99" s="1">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C100" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D100" s="1">
-        <v>1100</v>
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D101" s="1">
-        <v>1960.0000000000002</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B102" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C102" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D102" s="1">
-        <v>1280</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C103" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D103" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="B104" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C104" t="s">
         <v>131</v>
       </c>
       <c r="D104" s="1">
-        <v>910</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C105" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D105" s="1">
         <v>300</v>
@@ -2424,13 +2424,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C106" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D106" s="1">
         <v>300</v>
@@ -2438,27 +2438,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C107" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D107" s="1">
-        <v>715</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B108" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C108" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D108" s="1">
         <v>300</v>
@@ -2466,13 +2466,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D109" s="1">
         <v>300</v>
@@ -2480,41 +2480,41 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B110" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D110" s="1">
-        <v>1720</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="B111" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111" s="1">
-        <v>1330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D112" s="1">
         <v>300</v>
@@ -2522,13 +2522,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C113" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D113" s="1">
         <v>300</v>
@@ -2536,52 +2536,52 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D114" s="1">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C115" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D115" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="B116" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C116" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D116" s="1">
-        <v>2235</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B117" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C117" t="s">
         <v>130</v>
@@ -2592,24 +2592,24 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="B118" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C118" t="s">
         <v>131</v>
       </c>
       <c r="D118" s="1">
-        <v>1590</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B119" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C119" t="s">
         <v>131</v>
@@ -2620,27 +2620,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="B120" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C120" t="s">
         <v>133</v>
       </c>
       <c r="D120" s="1">
-        <v>687.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="B121" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C121" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D121" s="1">
         <v>300</v>
@@ -2648,41 +2648,41 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="B122" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D122" s="1">
-        <v>1370</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="B123" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D123" s="1">
-        <v>1340</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C124" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D124" s="1">
         <v>300</v>
@@ -2690,83 +2690,83 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="B125" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C125" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D125" s="1">
-        <v>750</v>
+        <v>300</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D126" s="1">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C127" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D127" s="1">
-        <v>1600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D128" s="1">
-        <v>830.00000000000011</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C129" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D129" s="1">
-        <v>635</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D130" s="1">
         <v>300</v>
@@ -2774,27 +2774,27 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B131" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D131" s="1">
-        <v>919.99999999999989</v>
+        <v>300</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="B132" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C132" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D132" s="1">
         <v>300</v>
@@ -2802,55 +2802,55 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="B133" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D133" s="1">
-        <v>1010</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="B134" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C134" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D134" s="1">
-        <v>560</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C135" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D135" s="1">
-        <v>470</v>
+        <v>300</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B136" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C136" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D136" s="1">
         <v>300</v>
@@ -2858,83 +2858,83 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B137" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C137" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D137" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="B138" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C138" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D138" s="1">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C139" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D139" s="1">
-        <v>2330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="B140" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C140" t="s">
         <v>131</v>
       </c>
       <c r="D140" s="1">
-        <v>1370</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="B141" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C141" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D141" s="1">
-        <v>910</v>
+        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B142" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C142" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D142" s="1">
         <v>300</v>
@@ -2942,83 +2942,83 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="B143" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C143" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D143" s="1">
-        <v>850</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B144" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C144" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D144" s="1">
-        <v>851</v>
+        <v>300</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="B145" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C145" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D145" s="1">
-        <v>1185</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="B146" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C146" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D146" s="1">
-        <v>739.99999999999989</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B147" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C147" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D147" s="1">
-        <v>569.99999999999989</v>
+        <v>300</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B148" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C148" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D148" s="1">
         <v>300</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B149" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C149" t="s">
         <v>132</v>
@@ -3040,10 +3040,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B150" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C150" t="s">
         <v>132</v>
@@ -3054,97 +3054,97 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B151" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C151" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D151" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="B152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C152" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D152" s="1">
-        <v>525</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="B153" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C153" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D153" s="1">
-        <v>2100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="B154" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C154" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D154" s="1">
-        <v>985.00000000000011</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C155" t="s">
         <v>131</v>
       </c>
       <c r="D155" s="1">
-        <v>780.00000000000011</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="B156" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C156" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D156" s="1">
-        <v>730.00000000000011</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B157" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C157" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D157" s="1">
         <v>300</v>
@@ -3152,10 +3152,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B158" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C158" t="s">
         <v>131</v>
@@ -3166,72 +3166,72 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B159" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C159" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D159" s="1">
-        <v>1080</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="B160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C160" t="s">
         <v>132</v>
       </c>
       <c r="D160" s="1">
-        <v>1630</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C161" t="s">
         <v>132</v>
       </c>
       <c r="D161" s="1">
-        <v>560</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="B162" t="s">
         <v>173</v>
       </c>
       <c r="C162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D162" s="1">
-        <v>440.00000000000006</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>173</v>
       </c>
       <c r="C163" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D163" s="1">
-        <v>335</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3249,8 +3249,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D186">
-    <sortCondition ref="B36:B186"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D164">
+    <sortCondition descending="1" ref="D93:D164"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WCW_2025 - players and prices.xlsx
+++ b/WCW_2025 - players and prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lexig\Desktop\FFBall_confidence_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C386D8-F23A-4F21-915D-CA652675A27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6D2120-ADAA-4002-A46B-B76C0B9D94A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CBDCAE-DA92-4F23-A09B-CD9A6B8BA89D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="184">
   <si>
     <t>Player</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Jake Elliott</t>
-  </si>
-  <si>
-    <t>Christian Watson</t>
   </si>
   <si>
     <t>Jaylen Warren</t>
@@ -941,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B320F96-1D01-4370-99B2-3C905ABA1AE7}">
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D93" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -971,10 +968,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1">
         <v>2420</v>
@@ -985,10 +982,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1">
         <v>2330</v>
@@ -999,10 +996,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1">
         <v>2300</v>
@@ -1013,10 +1010,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1">
         <v>2235</v>
@@ -1027,10 +1024,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1">
         <v>2100</v>
@@ -1041,10 +1038,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="1">
         <v>1960.0000000000002</v>
@@ -1055,10 +1052,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="1">
         <v>1939.9999999999998</v>
@@ -1069,10 +1066,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1">
         <v>1810.0000000000002</v>
@@ -1083,10 +1080,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="1">
         <v>1770</v>
@@ -1097,10 +1094,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="1">
         <v>1720</v>
@@ -1111,10 +1108,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="1">
         <v>1630</v>
@@ -1125,10 +1122,10 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="1">
         <v>1620</v>
@@ -1139,10 +1136,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="1">
         <v>1600</v>
@@ -1153,10 +1150,10 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="1">
         <v>1590</v>
@@ -1167,10 +1164,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="1">
         <v>1530</v>
@@ -1181,10 +1178,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="1">
         <v>1500</v>
@@ -1195,10 +1192,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="1">
         <v>1470</v>
@@ -1209,10 +1206,10 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="1">
         <v>1460</v>
@@ -1223,10 +1220,10 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="1">
         <v>1450</v>
@@ -1237,10 +1234,10 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="1">
         <v>1440</v>
@@ -1251,10 +1248,10 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="1">
         <v>1380</v>
@@ -1265,10 +1262,10 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" s="1">
         <v>1370</v>
@@ -1279,10 +1276,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" s="1">
         <v>1370</v>
@@ -1293,10 +1290,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="1">
         <v>1370</v>
@@ -1307,10 +1304,10 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" s="1">
         <v>1340</v>
@@ -1321,10 +1318,10 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27" s="1">
         <v>1340</v>
@@ -1335,10 +1332,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="1">
         <v>1330</v>
@@ -1349,10 +1346,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="1">
         <v>1280</v>
@@ -1363,10 +1360,10 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="1">
         <v>1250</v>
@@ -1377,10 +1374,10 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="1">
         <v>1230</v>
@@ -1391,10 +1388,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="1">
         <v>1190</v>
@@ -1405,10 +1402,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" s="1">
         <v>1185</v>
@@ -1419,10 +1416,10 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="1">
         <v>1170</v>
@@ -1433,10 +1430,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D35" s="1">
         <v>1140</v>
@@ -1447,10 +1444,10 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" s="1">
         <v>1130</v>
@@ -1461,10 +1458,10 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37" s="1">
         <v>1100</v>
@@ -1475,10 +1472,10 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D38" s="1">
         <v>1100</v>
@@ -1489,10 +1486,10 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D39" s="1">
         <v>1080</v>
@@ -1503,10 +1500,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" s="1">
         <v>1010</v>
@@ -1517,10 +1514,10 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" s="1">
         <v>1000</v>
@@ -1531,10 +1528,10 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="1">
         <v>1000</v>
@@ -1545,10 +1542,10 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="1">
         <v>985.00000000000011</v>
@@ -1559,10 +1556,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="1">
         <v>980.00000000000011</v>
@@ -1573,10 +1570,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="1">
         <v>980.00000000000011</v>
@@ -1584,13 +1581,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="1">
         <v>950</v>
@@ -1601,10 +1598,10 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" s="1">
         <v>930.00000000000011</v>
@@ -1612,13 +1609,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" s="1">
         <v>919.99999999999989</v>
@@ -1629,10 +1626,10 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D49" s="1">
         <v>910</v>
@@ -1643,10 +1640,10 @@
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D50" s="1">
         <v>910</v>
@@ -1654,13 +1651,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D51" s="1">
         <v>900</v>
@@ -1668,83 +1665,83 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
         <v>132</v>
       </c>
       <c r="D52" s="1">
-        <v>860</v>
+        <v>851</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D53" s="1">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D54" s="1">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D55" s="1">
-        <v>840</v>
+        <v>830.00000000000011</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D56" s="1">
-        <v>830.00000000000011</v>
+        <v>800</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57" s="1">
         <v>800</v>
@@ -1752,10 +1749,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
         <v>134</v>
@@ -1766,13 +1763,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D59" s="1">
         <v>800</v>
@@ -1780,13 +1777,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D60" s="1">
         <v>800</v>
@@ -1794,41 +1791,41 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D61" s="1">
-        <v>800</v>
+        <v>780.00000000000011</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="1">
-        <v>780.00000000000011</v>
+        <v>750</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D63" s="1">
         <v>750</v>
@@ -1836,80 +1833,80 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D64" s="1">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D65" s="1">
-        <v>740</v>
+        <v>739.99999999999989</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D66" s="1">
-        <v>739.99999999999989</v>
+        <v>730.00000000000011</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D67" s="1">
-        <v>730.00000000000011</v>
+        <v>715</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C68" t="s">
         <v>133</v>
       </c>
       <c r="D68" s="1">
-        <v>715</v>
+        <v>700</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
         <v>134</v>
@@ -1920,13 +1917,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
         <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D70" s="1">
         <v>700</v>
@@ -1934,10 +1931,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
         <v>134</v>
@@ -1948,83 +1945,83 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D72" s="1">
-        <v>700</v>
+        <v>687.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D73" s="1">
-        <v>687.5</v>
+        <v>680</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C74" t="s">
         <v>132</v>
       </c>
       <c r="D74" s="1">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D75" s="1">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D76" s="1">
-        <v>660</v>
+        <v>635</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D77" s="1">
         <v>635</v>
@@ -2032,41 +2029,41 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D78" s="1">
-        <v>635</v>
+        <v>630.00000000000011</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D79" s="1">
-        <v>630.00000000000011</v>
+        <v>600</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D80" s="1">
         <v>600</v>
@@ -2074,13 +2071,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B81" t="s">
         <v>176</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D81" s="1">
         <v>600</v>
@@ -2088,13 +2085,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D82" s="1">
         <v>600</v>
@@ -2102,13 +2099,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D83" s="1">
         <v>600</v>
@@ -2116,13 +2113,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D84" s="1">
         <v>600</v>
@@ -2130,41 +2127,41 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D85" s="1">
-        <v>600</v>
+        <v>569.99999999999989</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D86" s="1">
-        <v>569.99999999999989</v>
+        <v>560</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D87" s="1">
         <v>560</v>
@@ -2172,27 +2169,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D88" s="1">
-        <v>560</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D89" s="1">
         <v>525</v>
@@ -2200,27 +2197,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C90" t="s">
         <v>134</v>
       </c>
       <c r="D90" s="1">
-        <v>525</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>170</v>
       </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D91" s="1">
         <v>500</v>
@@ -2228,27 +2225,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
         <v>171</v>
       </c>
       <c r="C92" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D92" s="1">
-        <v>500</v>
+        <v>470</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D93" s="1">
         <v>470</v>
@@ -2256,24 +2253,24 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D94" s="1">
-        <v>470</v>
+        <v>440.00000000000006</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C95" t="s">
         <v>131</v>
@@ -2284,41 +2281,41 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
         <v>132</v>
       </c>
       <c r="D96" s="1">
-        <v>440.00000000000006</v>
+        <v>420</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B97" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C97" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D97" s="1">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D98" s="1">
         <v>400</v>
@@ -2326,83 +2323,83 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C99" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D99" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D100" s="1">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B101" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D101" s="1">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
         <v>178</v>
       </c>
       <c r="C102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D102" s="1">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="B103" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D103" s="1">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C104" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D104" s="1">
         <v>300</v>
@@ -2410,13 +2407,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D105" s="1">
         <v>300</v>
@@ -2424,13 +2421,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="B106" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D106" s="1">
         <v>300</v>
@@ -2441,10 +2438,10 @@
         <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D107" s="1">
         <v>300</v>
@@ -2452,10 +2449,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C108" t="s">
         <v>131</v>
@@ -2466,13 +2463,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D109" s="1">
         <v>300</v>
@@ -2480,13 +2477,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="B110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D110" s="1">
         <v>300</v>
@@ -2494,13 +2491,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D111" s="1">
         <v>300</v>
@@ -2508,13 +2505,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D112" s="1">
         <v>300</v>
@@ -2522,13 +2519,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C113" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D113" s="1">
         <v>300</v>
@@ -2536,13 +2533,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B114" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D114" s="1">
         <v>300</v>
@@ -2550,13 +2547,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B115" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D115" s="1">
         <v>300</v>
@@ -2564,13 +2561,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="B116" t="s">
         <v>176</v>
       </c>
       <c r="C116" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D116" s="1">
         <v>300</v>
@@ -2578,10 +2575,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B117" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C117" t="s">
         <v>130</v>
@@ -2595,10 +2592,10 @@
         <v>143</v>
       </c>
       <c r="B118" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D118" s="1">
         <v>300</v>
@@ -2606,13 +2603,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B119" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C119" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D119" s="1">
         <v>300</v>
@@ -2620,13 +2617,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D120" s="1">
         <v>300</v>
@@ -2634,13 +2631,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B121" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C121" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D121" s="1">
         <v>300</v>
@@ -2648,10 +2645,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C122" t="s">
         <v>130</v>
@@ -2662,13 +2659,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C123" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D123" s="1">
         <v>300</v>
@@ -2676,13 +2673,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B124" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D124" s="1">
         <v>300</v>
@@ -2690,13 +2687,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C125" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D125" s="1">
         <v>300</v>
@@ -2704,13 +2701,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C126" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D126" s="1">
         <v>300</v>
@@ -2718,13 +2715,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D127" s="1">
         <v>300</v>
@@ -2732,13 +2729,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D128" s="1">
         <v>300</v>
@@ -2746,13 +2743,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D129" s="1">
         <v>300</v>
@@ -2760,10 +2757,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="B130" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C130" t="s">
         <v>130</v>
@@ -2774,13 +2771,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="B131" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D131" s="1">
         <v>300</v>
@@ -2788,13 +2785,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D132" s="1">
         <v>300</v>
@@ -2802,13 +2799,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="B133" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C133" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D133" s="1">
         <v>300</v>
@@ -2816,13 +2813,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B134" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D134" s="1">
         <v>300</v>
@@ -2830,13 +2827,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D135" s="1">
         <v>300</v>
@@ -2844,13 +2841,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B136" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D136" s="1">
         <v>300</v>
@@ -2858,13 +2855,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="B137" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D137" s="1">
         <v>300</v>
@@ -2872,13 +2869,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C138" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D138" s="1">
         <v>300</v>
@@ -2886,13 +2883,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C139" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D139" s="1">
         <v>300</v>
@@ -2900,13 +2897,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="B140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C140" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D140" s="1">
         <v>300</v>
@@ -2914,13 +2911,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C141" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D141" s="1">
         <v>300</v>
@@ -2928,13 +2925,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="B142" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C142" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D142" s="1">
         <v>300</v>
@@ -2942,13 +2939,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B143" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C143" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D143" s="1">
         <v>300</v>
@@ -2956,10 +2953,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B144" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C144" t="s">
         <v>130</v>
@@ -2970,13 +2967,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B145" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C145" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D145" s="1">
         <v>300</v>
@@ -2984,13 +2981,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="B146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C146" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D146" s="1">
         <v>300</v>
@@ -2998,13 +2995,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B147" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C147" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D147" s="1">
         <v>300</v>
@@ -3012,13 +3009,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B148" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D148" s="1">
         <v>300</v>
@@ -3026,13 +3023,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B149" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C149" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D149" s="1">
         <v>300</v>
@@ -3040,13 +3037,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="B150" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C150" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D150" s="1">
         <v>300</v>
@@ -3054,10 +3051,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B151" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C151" t="s">
         <v>130</v>
@@ -3068,13 +3065,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="B152" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C152" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D152" s="1">
         <v>300</v>
@@ -3082,13 +3079,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B153" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C153" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D153" s="1">
         <v>300</v>
@@ -3096,13 +3093,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C154" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D154" s="1">
         <v>300</v>
@@ -3110,13 +3107,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="B155" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C155" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D155" s="1">
         <v>300</v>
@@ -3124,13 +3121,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C156" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D156" s="1">
         <v>300</v>
@@ -3138,13 +3135,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B157" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C157" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D157" s="1">
         <v>300</v>
@@ -3152,10 +3149,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B158" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C158" t="s">
         <v>131</v>
@@ -3166,13 +3163,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B159" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C159" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D159" s="1">
         <v>300</v>
@@ -3180,13 +3177,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C160" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D160" s="1">
         <v>300</v>
@@ -3194,13 +3191,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B161" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C161" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D161" s="1">
         <v>300</v>
@@ -3208,13 +3205,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C162" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D162" s="1">
         <v>300</v>
@@ -3222,10 +3219,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="B163" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C163" t="s">
         <v>131</v>
@@ -3234,23 +3231,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>120</v>
-      </c>
-      <c r="B164" t="s">
-        <v>173</v>
-      </c>
-      <c r="C164" t="s">
-        <v>132</v>
-      </c>
-      <c r="D164" s="1">
-        <v>300</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D164">
-    <sortCondition descending="1" ref="D93:D164"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D163">
+    <sortCondition descending="1" ref="D92:D163"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WCW_2025 - players and prices.xlsx
+++ b/WCW_2025 - players and prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lexig\Desktop\FFBall_confidence_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6D2120-ADAA-4002-A46B-B76C0B9D94A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C972929-FF64-47C3-BB30-68249332F56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CBDCAE-DA92-4F23-A09B-CD9A6B8BA89D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="183">
   <si>
     <t>Player</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>George Pickens</t>
-  </si>
-  <si>
-    <t>Zay Flowers</t>
   </si>
   <si>
     <t>Jayden Reed</t>
@@ -938,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B320F96-1D01-4370-99B2-3C905ABA1AE7}">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,13 +951,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -968,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1">
         <v>2420</v>
@@ -982,10 +979,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1">
         <v>2330</v>
@@ -996,10 +993,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1">
         <v>2300</v>
@@ -1010,10 +1007,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1">
         <v>2235</v>
@@ -1024,10 +1021,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="1">
         <v>2100</v>
@@ -1038,10 +1035,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="1">
         <v>1960.0000000000002</v>
@@ -1052,10 +1049,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="1">
         <v>1939.9999999999998</v>
@@ -1066,10 +1063,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="1">
         <v>1810.0000000000002</v>
@@ -1080,10 +1077,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="1">
         <v>1770</v>
@@ -1094,10 +1091,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="1">
         <v>1720</v>
@@ -1108,10 +1105,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="1">
         <v>1630</v>
@@ -1122,10 +1119,10 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="1">
         <v>1620</v>
@@ -1136,10 +1133,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="1">
         <v>1600</v>
@@ -1150,10 +1147,10 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="1">
         <v>1590</v>
@@ -1164,10 +1161,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="1">
         <v>1530</v>
@@ -1178,10 +1175,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="1">
         <v>1500</v>
@@ -1192,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="1">
         <v>1470</v>
@@ -1206,10 +1203,10 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="1">
         <v>1460</v>
@@ -1220,10 +1217,10 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="1">
         <v>1450</v>
@@ -1234,10 +1231,10 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="1">
         <v>1440</v>
@@ -1248,10 +1245,10 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="1">
         <v>1380</v>
@@ -1262,10 +1259,10 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="1">
         <v>1370</v>
@@ -1276,10 +1273,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="1">
         <v>1370</v>
@@ -1290,10 +1287,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="1">
         <v>1370</v>
@@ -1304,10 +1301,10 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="1">
         <v>1340</v>
@@ -1318,10 +1315,10 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27" s="1">
         <v>1340</v>
@@ -1332,10 +1329,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="1">
         <v>1330</v>
@@ -1346,10 +1343,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="1">
         <v>1280</v>
@@ -1360,10 +1357,10 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="1">
         <v>1250</v>
@@ -1374,10 +1371,10 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="1">
         <v>1230</v>
@@ -1388,10 +1385,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D32" s="1">
         <v>1190</v>
@@ -1402,10 +1399,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" s="1">
         <v>1185</v>
@@ -1416,10 +1413,10 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D34" s="1">
         <v>1170</v>
@@ -1430,10 +1427,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D35" s="1">
         <v>1140</v>
@@ -1441,16 +1438,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D36" s="1">
-        <v>1130</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1458,10 +1455,10 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D37" s="1">
         <v>1100</v>
@@ -1469,55 +1466,55 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D38" s="1">
-        <v>1100</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D39" s="1">
-        <v>1080</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>179</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D40" s="1">
-        <v>1010</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="1">
         <v>1000</v>
@@ -1525,41 +1522,41 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D42" s="1">
-        <v>1000</v>
+        <v>985.00000000000011</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1">
-        <v>985.00000000000011</v>
+        <v>980.00000000000011</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="1">
         <v>980.00000000000011</v>
@@ -1567,69 +1564,69 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
         <v>131</v>
       </c>
       <c r="D45" s="1">
-        <v>980.00000000000011</v>
+        <v>950</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="1">
-        <v>950</v>
+        <v>930.00000000000011</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
         <v>131</v>
       </c>
       <c r="D47" s="1">
-        <v>930.00000000000011</v>
+        <v>919.99999999999989</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D48" s="1">
-        <v>919.99999999999989</v>
+        <v>910</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D49" s="1">
         <v>910</v>
@@ -1637,97 +1634,97 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D50" s="1">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D51" s="1">
-        <v>900</v>
+        <v>851</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D52" s="1">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D53" s="1">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D54" s="1">
-        <v>840</v>
+        <v>830.00000000000011</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D55" s="1">
-        <v>830.00000000000011</v>
+        <v>800</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D56" s="1">
         <v>800</v>
@@ -1735,10 +1732,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
         <v>133</v>
@@ -1749,13 +1746,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D58" s="1">
         <v>800</v>
@@ -1763,13 +1760,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D59" s="1">
         <v>800</v>
@@ -1777,41 +1774,41 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D60" s="1">
-        <v>800</v>
+        <v>780.00000000000011</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
         <v>130</v>
       </c>
       <c r="D61" s="1">
-        <v>780.00000000000011</v>
+        <v>750</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D62" s="1">
         <v>750</v>
@@ -1819,80 +1816,80 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D63" s="1">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D64" s="1">
-        <v>740</v>
+        <v>739.99999999999989</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D65" s="1">
-        <v>739.99999999999989</v>
+        <v>730.00000000000011</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D66" s="1">
-        <v>730.00000000000011</v>
+        <v>715</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
         <v>132</v>
       </c>
       <c r="D67" s="1">
-        <v>715</v>
+        <v>700</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
         <v>133</v>
@@ -1903,13 +1900,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
         <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D69" s="1">
         <v>700</v>
@@ -1917,10 +1914,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s">
         <v>133</v>
@@ -1931,83 +1928,83 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D71" s="1">
-        <v>700</v>
+        <v>687.5</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D72" s="1">
-        <v>687.5</v>
+        <v>680</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C73" t="s">
         <v>131</v>
       </c>
       <c r="D73" s="1">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D74" s="1">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D75" s="1">
-        <v>660</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D76" s="1">
         <v>635</v>
@@ -2015,41 +2012,41 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D77" s="1">
-        <v>635</v>
+        <v>630.00000000000011</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D78" s="1">
-        <v>630.00000000000011</v>
+        <v>600</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D79" s="1">
         <v>600</v>
@@ -2057,13 +2054,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
         <v>175</v>
       </c>
       <c r="C80" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D80" s="1">
         <v>600</v>
@@ -2071,13 +2068,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D81" s="1">
         <v>600</v>
@@ -2085,13 +2082,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="B82" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D82" s="1">
         <v>600</v>
@@ -2099,13 +2096,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D83" s="1">
         <v>600</v>
@@ -2113,41 +2110,41 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D84" s="1">
-        <v>600</v>
+        <v>569.99999999999989</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D85" s="1">
-        <v>569.99999999999989</v>
+        <v>560</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D86" s="1">
         <v>560</v>
@@ -2155,27 +2152,27 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D87" s="1">
-        <v>560</v>
+        <v>525</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C88" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D88" s="1">
         <v>525</v>
@@ -2183,27 +2180,27 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C89" t="s">
         <v>133</v>
       </c>
       <c r="D89" s="1">
-        <v>525</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>169</v>
       </c>
       <c r="C90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D90" s="1">
         <v>500</v>
@@ -2211,27 +2208,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>170</v>
       </c>
       <c r="C91" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D91" s="1">
-        <v>500</v>
+        <v>470</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D92" s="1">
         <v>470</v>
@@ -2239,24 +2236,24 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D93" s="1">
-        <v>470</v>
+        <v>440.00000000000006</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C94" t="s">
         <v>130</v>
@@ -2267,41 +2264,41 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C95" t="s">
         <v>131</v>
       </c>
       <c r="D95" s="1">
-        <v>440.00000000000006</v>
+        <v>420</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="B96" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D96" s="1">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C97" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D97" s="1">
         <v>400</v>
@@ -2309,83 +2306,83 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D98" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D99" s="1">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C100" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D100" s="1">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
         <v>177</v>
       </c>
       <c r="C101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D101" s="1">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="B102" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C102" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D102" s="1">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="B103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D103" s="1">
         <v>300</v>
@@ -2393,13 +2390,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D104" s="1">
         <v>300</v>
@@ -2407,13 +2404,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="B105" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C105" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D105" s="1">
         <v>300</v>
@@ -2424,10 +2421,10 @@
         <v>139</v>
       </c>
       <c r="B106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D106" s="1">
         <v>300</v>
@@ -2435,10 +2432,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C107" t="s">
         <v>130</v>
@@ -2449,13 +2446,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C108" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D108" s="1">
         <v>300</v>
@@ -2463,13 +2460,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D109" s="1">
         <v>300</v>
@@ -2477,13 +2474,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C110" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D110" s="1">
         <v>300</v>
@@ -2491,13 +2488,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111" s="1">
         <v>300</v>
@@ -2505,13 +2502,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D112" s="1">
         <v>300</v>
@@ -2519,13 +2516,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C113" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D113" s="1">
         <v>300</v>
@@ -2533,13 +2530,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D114" s="1">
         <v>300</v>
@@ -2547,13 +2544,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="B115" t="s">
         <v>175</v>
       </c>
       <c r="C115" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D115" s="1">
         <v>300</v>
@@ -2561,10 +2558,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B116" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C116" t="s">
         <v>129</v>
@@ -2578,10 +2575,10 @@
         <v>142</v>
       </c>
       <c r="B117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D117" s="1">
         <v>300</v>
@@ -2589,13 +2586,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B118" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D118" s="1">
         <v>300</v>
@@ -2603,13 +2600,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D119" s="1">
         <v>300</v>
@@ -2617,13 +2614,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B120" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C120" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D120" s="1">
         <v>300</v>
@@ -2631,10 +2628,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B121" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C121" t="s">
         <v>129</v>
@@ -2645,13 +2642,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B122" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C122" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D122" s="1">
         <v>300</v>
@@ -2659,13 +2656,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D123" s="1">
         <v>300</v>
@@ -2673,13 +2670,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="B124" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C124" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D124" s="1">
         <v>300</v>
@@ -2687,13 +2684,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B125" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C125" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D125" s="1">
         <v>300</v>
@@ -2701,13 +2698,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D126" s="1">
         <v>300</v>
@@ -2715,13 +2712,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D127" s="1">
         <v>300</v>
@@ -2729,13 +2726,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B128" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D128" s="1">
         <v>300</v>
@@ -2743,10 +2740,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C129" t="s">
         <v>129</v>
@@ -2757,13 +2754,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D130" s="1">
         <v>300</v>
@@ -2771,13 +2768,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D131" s="1">
         <v>300</v>
@@ -2785,13 +2782,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="B132" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C132" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D132" s="1">
         <v>300</v>
@@ -2799,13 +2796,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B133" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D133" s="1">
         <v>300</v>
@@ -2813,13 +2810,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D134" s="1">
         <v>300</v>
@@ -2827,13 +2824,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C135" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D135" s="1">
         <v>300</v>
@@ -2841,13 +2838,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="B136" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C136" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D136" s="1">
         <v>300</v>
@@ -2855,13 +2852,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C137" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D137" s="1">
         <v>300</v>
@@ -2869,13 +2866,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B138" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D138" s="1">
         <v>300</v>
@@ -2883,13 +2880,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="B139" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C139" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D139" s="1">
         <v>300</v>
@@ -2897,13 +2894,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C140" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D140" s="1">
         <v>300</v>
@@ -2911,13 +2908,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C141" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D141" s="1">
         <v>300</v>
@@ -2925,13 +2922,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B142" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C142" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D142" s="1">
         <v>300</v>
@@ -2939,10 +2936,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C143" t="s">
         <v>129</v>
@@ -2953,13 +2950,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B144" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D144" s="1">
         <v>300</v>
@@ -2967,13 +2964,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="B145" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C145" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D145" s="1">
         <v>300</v>
@@ -2981,13 +2978,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B146" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C146" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D146" s="1">
         <v>300</v>
@@ -2995,13 +2992,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C147" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D147" s="1">
         <v>300</v>
@@ -3009,13 +3006,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B148" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C148" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D148" s="1">
         <v>300</v>
@@ -3023,13 +3020,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B149" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C149" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D149" s="1">
         <v>300</v>
@@ -3037,10 +3034,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C150" t="s">
         <v>129</v>
@@ -3051,13 +3048,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B151" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C151" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D151" s="1">
         <v>300</v>
@@ -3065,13 +3062,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B152" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C152" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D152" s="1">
         <v>300</v>
@@ -3079,13 +3076,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C153" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D153" s="1">
         <v>300</v>
@@ -3093,13 +3090,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="B154" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C154" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D154" s="1">
         <v>300</v>
@@ -3107,13 +3104,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C155" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D155" s="1">
         <v>300</v>
@@ -3121,13 +3118,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B156" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C156" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D156" s="1">
         <v>300</v>
@@ -3135,10 +3132,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="B157" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C157" t="s">
         <v>130</v>
@@ -3149,13 +3146,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B158" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C158" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D158" s="1">
         <v>300</v>
@@ -3163,13 +3160,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C159" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D159" s="1">
         <v>300</v>
@@ -3177,13 +3174,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B160" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C160" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D160" s="1">
         <v>300</v>
@@ -3191,13 +3188,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C161" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D161" s="1">
         <v>300</v>
@@ -3205,10 +3202,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B162" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C162" t="s">
         <v>130</v>
@@ -3217,23 +3214,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>119</v>
-      </c>
-      <c r="B163" t="s">
-        <v>172</v>
-      </c>
-      <c r="C163" t="s">
-        <v>131</v>
-      </c>
-      <c r="D163" s="1">
-        <v>300</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D163">
-    <sortCondition descending="1" ref="D92:D163"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D162">
+    <sortCondition descending="1" ref="D91:D162"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
